--- a/Outputs/1. Budget/Output Files/400000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Output Files/400000/Output_10_34.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263267.16902226</v>
+        <v>2263274.745226426</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1286360.308530483</v>
+        <v>1286360.308530484</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7673235.535390622</v>
+        <v>7673235.535390623</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>345.4028258660758</v>
       </c>
       <c r="D11" t="n">
-        <v>334.8129757157512</v>
+        <v>334.8129757157511</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>394.1810645203827</v>
+        <v>394.1810645203826</v>
       </c>
       <c r="H11" t="n">
-        <v>172.4139898765964</v>
+        <v>172.413989876597</v>
       </c>
       <c r="I11" t="n">
         <v>142.3532413351651</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>349.8610347735373</v>
+        <v>349.8610347735372</v>
       </c>
       <c r="Y11" t="n">
         <v>366.3678727511218</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449357</v>
       </c>
       <c r="C12" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D12" t="n">
-        <v>127.574999659707</v>
+        <v>127.5749996597069</v>
       </c>
       <c r="E12" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F12" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G12" t="n">
-        <v>116.8037824271546</v>
+        <v>116.8037824271545</v>
       </c>
       <c r="H12" t="n">
         <v>85.89778725202208</v>
@@ -1505,7 +1505,7 @@
         <v>177.5954274574195</v>
       </c>
       <c r="U12" t="n">
-        <v>206.0272590161007</v>
+        <v>206.0272590161006</v>
       </c>
       <c r="V12" t="n">
         <v>212.9305212444935</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.91571961681964</v>
+        <v>46.91571961681976</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>266.6529324316592</v>
       </c>
       <c r="X13" t="n">
-        <v>205.8395894841054</v>
+        <v>205.8395894841053</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>362.06030416733</v>
+        <v>362.0603041673299</v>
       </c>
       <c r="F14" t="n">
-        <v>387.0059798367797</v>
+        <v>387.0059798367796</v>
       </c>
       <c r="G14" t="n">
-        <v>394.1810645203827</v>
+        <v>394.1810645203826</v>
       </c>
       <c r="H14" t="n">
-        <v>260.1766704682695</v>
+        <v>260.1766704682697</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>349.8610347735373</v>
+        <v>349.8610347735372</v>
       </c>
       <c r="Y14" t="n">
         <v>366.3678727511218</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449355</v>
       </c>
       <c r="C15" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D15" t="n">
-        <v>127.574999659707</v>
+        <v>127.5749996597069</v>
       </c>
       <c r="E15" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F15" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G15" t="n">
-        <v>116.8037824271545</v>
+        <v>116.8037824271542</v>
       </c>
       <c r="H15" t="n">
         <v>85.89778725202208</v>
       </c>
       <c r="I15" t="n">
-        <v>46.4699865766335</v>
+        <v>46.46998657663349</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.70955783808157</v>
+        <v>38.70955783808156</v>
       </c>
       <c r="S15" t="n">
         <v>139.3743003751718</v>
@@ -1812,7 +1812,7 @@
         <v>19.28005054423829</v>
       </c>
       <c r="R16" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>266.6529324316592</v>
       </c>
       <c r="X16" t="n">
-        <v>1.5342365070853</v>
+        <v>1.534236507085364</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>362.8637757585488</v>
+        <v>362.8637757585487</v>
       </c>
       <c r="C17" t="n">
         <v>345.4028258660758</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>362.06030416733</v>
+        <v>362.0603041673299</v>
       </c>
       <c r="F17" t="n">
-        <v>387.0059798367797</v>
+        <v>387.0059798367796</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>160.6290071220265</v>
       </c>
       <c r="T17" t="n">
-        <v>25.18784207384527</v>
+        <v>25.18784207384573</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449355</v>
       </c>
       <c r="C18" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D18" t="n">
-        <v>127.574999659707</v>
+        <v>127.5749996597069</v>
       </c>
       <c r="E18" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F18" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G18" t="n">
-        <v>116.8037824271546</v>
+        <v>116.8037824271545</v>
       </c>
       <c r="H18" t="n">
         <v>85.89778725202208</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.70955783808088</v>
+        <v>38.70955783808133</v>
       </c>
       <c r="S18" t="n">
         <v>139.3743003751718</v>
@@ -1979,7 +1979,7 @@
         <v>177.5954274574195</v>
       </c>
       <c r="U18" t="n">
-        <v>206.0272590161007</v>
+        <v>206.0272590161006</v>
       </c>
       <c r="V18" t="n">
         <v>212.9305212444935</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.2800505442383</v>
+        <v>19.28005054423829</v>
       </c>
       <c r="R19" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S19" t="n">
         <v>62.51047351193019</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>334.8129757157512</v>
+        <v>334.8129757157511</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>242.9157490080387</v>
+        <v>242.9157490080395</v>
       </c>
       <c r="G20" t="n">
-        <v>394.1810645203827</v>
+        <v>394.1810645203826</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>329.3709028124812</v>
       </c>
       <c r="X20" t="n">
-        <v>349.8610347735373</v>
+        <v>349.8610347735372</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449355</v>
       </c>
       <c r="C21" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D21" t="n">
-        <v>127.574999659707</v>
+        <v>127.5749996597069</v>
       </c>
       <c r="E21" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F21" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G21" t="n">
-        <v>116.8037824271546</v>
+        <v>116.8037824271545</v>
       </c>
       <c r="H21" t="n">
         <v>85.89778725202208</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.70955783808157</v>
+        <v>38.70955783808156</v>
       </c>
       <c r="S21" t="n">
         <v>139.3743003751718</v>
       </c>
       <c r="T21" t="n">
-        <v>177.5954274574185</v>
+        <v>177.5954274574197</v>
       </c>
       <c r="U21" t="n">
-        <v>206.0272590161007</v>
+        <v>206.0272590161006</v>
       </c>
       <c r="V21" t="n">
         <v>212.9305212444935</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.2800505442383</v>
+        <v>19.28005054423829</v>
       </c>
       <c r="R22" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S22" t="n">
         <v>194.3623758319168</v>
       </c>
       <c r="T22" t="n">
-        <v>73.82479310682773</v>
+        <v>73.82479310682778</v>
       </c>
       <c r="U22" t="n">
         <v>266.4183401141565</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>387.0059798367797</v>
+        <v>387.0059798367796</v>
       </c>
       <c r="G23" t="n">
-        <v>144.3859609416435</v>
+        <v>144.3859609416438</v>
       </c>
       <c r="H23" t="n">
-        <v>306.7867151022101</v>
+        <v>306.78671510221</v>
       </c>
       <c r="I23" t="n">
-        <v>142.3532413351652</v>
+        <v>142.3532413351651</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.37778818027417</v>
+        <v>51.37778818027414</v>
       </c>
       <c r="S23" t="n">
         <v>160.6290071220265</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>329.3709028124813</v>
+        <v>329.3709028124812</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449355</v>
       </c>
       <c r="C24" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D24" t="n">
-        <v>127.574999659707</v>
+        <v>127.5749996597069</v>
       </c>
       <c r="E24" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F24" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G24" t="n">
-        <v>116.8037824271546</v>
+        <v>116.8037824271545</v>
       </c>
       <c r="H24" t="n">
-        <v>85.89778725202213</v>
+        <v>85.89778725202208</v>
       </c>
       <c r="I24" t="n">
-        <v>46.46998657663353</v>
+        <v>46.46998657663349</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.70955783808133</v>
+        <v>38.70955783808156</v>
       </c>
       <c r="S24" t="n">
         <v>139.3743003751718</v>
@@ -2453,13 +2453,13 @@
         <v>177.5954274574195</v>
       </c>
       <c r="U24" t="n">
-        <v>206.0272590161005</v>
+        <v>206.0272590161009</v>
       </c>
       <c r="V24" t="n">
         <v>212.9305212444935</v>
       </c>
       <c r="W24" t="n">
-        <v>231.8249172559879</v>
+        <v>231.8249172559878</v>
       </c>
       <c r="X24" t="n">
         <v>185.9029192985457</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.28005054423834</v>
+        <v>19.28005054423829</v>
       </c>
       <c r="R25" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>205.6766954268145</v>
+        <v>205.6766954268144</v>
       </c>
       <c r="U25" t="n">
-        <v>62.27588119442721</v>
+        <v>62.27588119442743</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>366.3364268579827</v>
       </c>
       <c r="C26" t="n">
-        <v>348.8754769655097</v>
+        <v>348.8754769655096</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.18220893751547</v>
+        <v>42.18220893751546</v>
       </c>
       <c r="S27" t="n">
-        <v>142.8469514746048</v>
+        <v>142.8469514746057</v>
       </c>
       <c r="T27" t="n">
         <v>181.0680785568534</v>
       </c>
       <c r="U27" t="n">
-        <v>209.4999101155346</v>
+        <v>209.4999101155348</v>
       </c>
       <c r="V27" t="n">
         <v>216.4031723439274</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>313.4249336092864</v>
+        <v>313.4249336092866</v>
       </c>
       <c r="F29" t="n">
-        <v>390.4786309362136</v>
+        <v>390.4786309362135</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.85043927970804</v>
+        <v>54.85043927970801</v>
       </c>
       <c r="S29" t="n">
-        <v>164.1016582214604</v>
+        <v>164.1016582214603</v>
       </c>
       <c r="T29" t="n">
-        <v>201.2195247229438</v>
+        <v>201.2195247229437</v>
       </c>
       <c r="U29" t="n">
-        <v>234.848109535153</v>
+        <v>234.8481095351529</v>
       </c>
       <c r="V29" t="n">
         <v>311.354843664637</v>
@@ -2876,22 +2876,22 @@
         <v>156.3110841828178</v>
       </c>
       <c r="D30" t="n">
-        <v>131.0476507591409</v>
+        <v>131.0476507591408</v>
       </c>
       <c r="E30" t="n">
         <v>141.247665649903</v>
       </c>
       <c r="F30" t="n">
-        <v>128.671797587886</v>
+        <v>128.6717975878859</v>
       </c>
       <c r="G30" t="n">
-        <v>120.2764335265884</v>
+        <v>120.2764335265887</v>
       </c>
       <c r="H30" t="n">
-        <v>89.37043835145599</v>
+        <v>89.37043835145597</v>
       </c>
       <c r="I30" t="n">
-        <v>49.94263767606739</v>
+        <v>49.94263767606738</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.18220893751546</v>
+        <v>42.18220893751544</v>
       </c>
       <c r="S30" t="n">
-        <v>142.8469514746052</v>
+        <v>142.8469514746056</v>
       </c>
       <c r="T30" t="n">
         <v>181.0680785568534</v>
       </c>
       <c r="U30" t="n">
-        <v>209.4999101155342</v>
+        <v>209.4999101155339</v>
       </c>
       <c r="V30" t="n">
-        <v>216.4031723439274</v>
+        <v>216.4031723439273</v>
       </c>
       <c r="W30" t="n">
         <v>235.2975683554217</v>
       </c>
       <c r="X30" t="n">
-        <v>189.3755703979796</v>
+        <v>189.3755703979795</v>
       </c>
       <c r="Y30" t="n">
-        <v>189.2852809718065</v>
+        <v>189.2852809718064</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.7527016436722</v>
+        <v>22.75270164367218</v>
       </c>
       <c r="R31" t="n">
         <v>135.6521387728131</v>
@@ -3031,16 +3031,16 @@
         <v>346.4663609530509</v>
       </c>
       <c r="C32" t="n">
-        <v>329.0054110605779</v>
+        <v>329.0054110605778</v>
       </c>
       <c r="D32" t="n">
-        <v>318.4155609102533</v>
+        <v>318.4155609102532</v>
       </c>
       <c r="E32" t="n">
         <v>345.6628893618321</v>
       </c>
       <c r="F32" t="n">
-        <v>370.6085650312818</v>
+        <v>370.6085650312817</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>144.2315923165286</v>
+        <v>144.2315923165285</v>
       </c>
       <c r="T32" t="n">
         <v>181.349458818012</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>304.520073846034</v>
+        <v>304.5200738460342</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>161.6120870110358</v>
+        <v>161.6120870110361</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>111.1775848542091</v>
+        <v>111.177584854209</v>
       </c>
       <c r="E33" t="n">
-        <v>121.3775997449713</v>
+        <v>121.3775997449712</v>
       </c>
       <c r="F33" t="n">
         <v>108.8017316829542</v>
       </c>
       <c r="G33" t="n">
-        <v>100.4063676216567</v>
+        <v>100.4063676216566</v>
       </c>
       <c r="H33" t="n">
-        <v>69.50037244652422</v>
+        <v>69.50037244652417</v>
       </c>
       <c r="I33" t="n">
-        <v>30.07257177113563</v>
+        <v>30.07257177113557</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>197.4654933623513</v>
       </c>
       <c r="U33" t="n">
-        <v>189.6298442106028</v>
+        <v>189.6298442106027</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.88263573874044</v>
+        <v>2.882635738740383</v>
       </c>
       <c r="R34" t="n">
-        <v>115.7820728678814</v>
+        <v>115.7820728678813</v>
       </c>
       <c r="S34" t="n">
-        <v>8.422015308231211</v>
+        <v>8.422015308231886</v>
       </c>
       <c r="T34" t="n">
-        <v>189.2792806213166</v>
+        <v>189.2792806213165</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>345.6628893618321</v>
       </c>
       <c r="F35" t="n">
-        <v>332.3197303751653</v>
+        <v>332.3197303751654</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>125.9558265296673</v>
+        <v>125.9558265296672</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>34.98037337477629</v>
+        <v>34.98037337477624</v>
       </c>
       <c r="S35" t="n">
-        <v>144.2315923165286</v>
+        <v>144.2315923165285</v>
       </c>
       <c r="T35" t="n">
         <v>181.349458818012</v>
@@ -3325,13 +3325,13 @@
         <v>214.9780436302212</v>
       </c>
       <c r="V35" t="n">
-        <v>291.4847777597053</v>
+        <v>291.4847777597052</v>
       </c>
       <c r="W35" t="n">
-        <v>312.9734880069834</v>
+        <v>312.9734880069833</v>
       </c>
       <c r="X35" t="n">
-        <v>333.4636199680394</v>
+        <v>333.4636199680393</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>130.2657029394377</v>
+        <v>130.2657029394376</v>
       </c>
       <c r="C36" t="n">
-        <v>136.4410182778861</v>
+        <v>136.441018277886</v>
       </c>
       <c r="D36" t="n">
-        <v>111.1775848542091</v>
+        <v>111.177584854209</v>
       </c>
       <c r="E36" t="n">
-        <v>121.3775997449713</v>
+        <v>121.3775997449712</v>
       </c>
       <c r="F36" t="n">
         <v>108.8017316829542</v>
       </c>
       <c r="G36" t="n">
-        <v>100.4063676216567</v>
+        <v>100.4063676216566</v>
       </c>
       <c r="H36" t="n">
-        <v>69.50037244652422</v>
+        <v>69.50037244652417</v>
       </c>
       <c r="I36" t="n">
-        <v>30.07257177113563</v>
+        <v>30.07257177113557</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>225.8973249210324</v>
       </c>
       <c r="V36" t="n">
-        <v>205.0193783539536</v>
+        <v>205.019378353954</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.88263573874044</v>
+        <v>2.882635738740383</v>
       </c>
       <c r="R37" t="n">
-        <v>115.7820728678814</v>
+        <v>115.7820728678813</v>
       </c>
       <c r="S37" t="n">
         <v>177.9649610264189</v>
       </c>
       <c r="T37" t="n">
-        <v>189.2792806213166</v>
+        <v>189.2792806213165</v>
       </c>
       <c r="U37" t="n">
-        <v>80.71257190797354</v>
+        <v>80.71257190797445</v>
       </c>
       <c r="V37" t="n">
         <v>215.8701626133983</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.98037337477625</v>
+        <v>34.98037337477624</v>
       </c>
       <c r="S38" t="n">
-        <v>144.2315923165286</v>
+        <v>144.2315923165285</v>
       </c>
       <c r="T38" t="n">
         <v>181.349458818012</v>
@@ -3587,7 +3587,7 @@
         <v>136.441018277886</v>
       </c>
       <c r="D39" t="n">
-        <v>111.1775848542091</v>
+        <v>111.177584854209</v>
       </c>
       <c r="E39" t="n">
         <v>121.3775997449712</v>
@@ -3599,7 +3599,7 @@
         <v>100.4063676216566</v>
       </c>
       <c r="H39" t="n">
-        <v>69.5003724465242</v>
+        <v>69.50037244652417</v>
       </c>
       <c r="I39" t="n">
         <v>66.34005248156529</v>
@@ -3638,7 +3638,7 @@
         <v>197.4654933623513</v>
       </c>
       <c r="U39" t="n">
-        <v>198.1161161255605</v>
+        <v>198.1161161255607</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.882635738740404</v>
+        <v>2.882635738740383</v>
       </c>
       <c r="R40" t="n">
         <v>115.7820728678813</v>
@@ -3717,7 +3717,7 @@
         <v>189.2792806213165</v>
       </c>
       <c r="U40" t="n">
-        <v>114.2655618797074</v>
+        <v>114.2655618797076</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>362.8637757585488</v>
+        <v>362.8637757585487</v>
       </c>
       <c r="C41" t="n">
-        <v>345.4028258660758</v>
+        <v>345.4028258660757</v>
       </c>
       <c r="D41" t="n">
-        <v>86.71871998298904</v>
+        <v>86.71871998298954</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>306.7867151022101</v>
+        <v>306.78671510221</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.37778818027419</v>
+        <v>51.37778818027414</v>
       </c>
       <c r="S41" t="n">
         <v>160.6290071220265</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449355</v>
       </c>
       <c r="C42" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D42" t="n">
-        <v>127.574999659707</v>
+        <v>127.5749996597069</v>
       </c>
       <c r="E42" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F42" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G42" t="n">
-        <v>116.8037824271546</v>
+        <v>116.8037824271545</v>
       </c>
       <c r="H42" t="n">
-        <v>85.89778725202213</v>
+        <v>85.89778725202208</v>
       </c>
       <c r="I42" t="n">
-        <v>46.46998657663353</v>
+        <v>46.46998657663348</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.70955783808178</v>
+        <v>38.70955783808155</v>
       </c>
       <c r="S42" t="n">
-        <v>139.3743003751718</v>
+        <v>139.3743003751722</v>
       </c>
       <c r="T42" t="n">
         <v>177.5954274574195</v>
@@ -3881,7 +3881,7 @@
         <v>212.9305212444935</v>
       </c>
       <c r="W42" t="n">
-        <v>231.8249172559879</v>
+        <v>231.8249172559878</v>
       </c>
       <c r="X42" t="n">
         <v>185.9029192985457</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>118.6967423343719</v>
+        <v>118.6967423343718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>362.8637757585488</v>
       </c>
       <c r="C44" t="n">
-        <v>279.8633308381073</v>
+        <v>279.8633308381064</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>146.6631177449356</v>
+        <v>146.6631177449355</v>
       </c>
       <c r="C45" t="n">
-        <v>152.838433083384</v>
+        <v>152.8384330833839</v>
       </c>
       <c r="D45" t="n">
         <v>127.574999659707</v>
       </c>
       <c r="E45" t="n">
-        <v>137.7750145504692</v>
+        <v>137.7750145504691</v>
       </c>
       <c r="F45" t="n">
         <v>125.1991464884521</v>
       </c>
       <c r="G45" t="n">
-        <v>116.8037824271546</v>
+        <v>116.8037824271545</v>
       </c>
       <c r="H45" t="n">
-        <v>85.89778725202213</v>
+        <v>85.8977872520221</v>
       </c>
       <c r="I45" t="n">
-        <v>46.46998657663353</v>
+        <v>46.4699865766335</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.70955783808178</v>
+        <v>38.70955783808157</v>
       </c>
       <c r="S45" t="n">
         <v>139.3743003751718</v>
       </c>
       <c r="T45" t="n">
-        <v>177.5954274574195</v>
+        <v>177.5954274574185</v>
       </c>
       <c r="U45" t="n">
-        <v>206.0272590161007</v>
+        <v>206.0272590161006</v>
       </c>
       <c r="V45" t="n">
         <v>212.9305212444935</v>
       </c>
       <c r="W45" t="n">
-        <v>231.8249172559879</v>
+        <v>231.8249172559878</v>
       </c>
       <c r="X45" t="n">
         <v>185.9029192985457</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.228904986897543</v>
+        <v>134.9743121001782</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>128.7454071132806</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>118.6967423343719</v>
+        <v>118.6967423343718</v>
       </c>
       <c r="J46" t="n">
-        <v>33.79616504843287</v>
+        <v>33.79616504843284</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.967647258823</v>
+        <v>1450.967647258824</v>
       </c>
       <c r="C11" t="n">
         <v>1102.075903959757</v>
       </c>
       <c r="D11" t="n">
-        <v>763.8809789943516</v>
+        <v>763.8809789943522</v>
       </c>
       <c r="E11" t="n">
-        <v>763.8809789943516</v>
+        <v>763.8809789943522</v>
       </c>
       <c r="F11" t="n">
-        <v>763.8809789943516</v>
+        <v>763.8809789943522</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7182875596216</v>
+        <v>365.7182875596222</v>
       </c>
       <c r="H11" t="n">
         <v>191.5627422297263</v>
@@ -5041,10 +5041,10 @@
         <v>47.77158936592313</v>
       </c>
       <c r="J11" t="n">
-        <v>141.1080942721221</v>
+        <v>141.1080942721223</v>
       </c>
       <c r="K11" t="n">
-        <v>401.7401243812949</v>
+        <v>401.7401243812951</v>
       </c>
       <c r="L11" t="n">
         <v>777.3538319345505</v>
@@ -5086,7 +5086,7 @@
         <v>1821.03620559329</v>
       </c>
       <c r="Y11" t="n">
-        <v>1450.967647258823</v>
+        <v>1450.967647258824</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>47.77158936592313</v>
       </c>
       <c r="J12" t="n">
-        <v>47.77158936592313</v>
+        <v>109.6687925859807</v>
       </c>
       <c r="K12" t="n">
-        <v>280.1846116252882</v>
+        <v>342.0818148453458</v>
       </c>
       <c r="L12" t="n">
-        <v>654.0969978882003</v>
+        <v>715.9942011082579</v>
       </c>
       <c r="M12" t="n">
-        <v>1142.414337989439</v>
+        <v>1204.311541209496</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.362998437019</v>
+        <v>1721.260201657076</v>
       </c>
       <c r="O12" t="n">
-        <v>2065.854350377033</v>
+        <v>2127.751553597091</v>
       </c>
       <c r="P12" t="n">
         <v>2234.557097307252</v>
@@ -5165,7 +5165,7 @@
         <v>1184.170475886257</v>
       </c>
       <c r="Y12" t="n">
-        <v>996.4809507626483</v>
+        <v>996.4809507626484</v>
       </c>
     </row>
     <row r="13">
@@ -5226,16 +5226,16 @@
         <v>721.2917880793376</v>
       </c>
       <c r="S13" t="n">
-        <v>673.9021723047723</v>
+        <v>673.9021723047722</v>
       </c>
       <c r="T13" t="n">
-        <v>673.9021723047723</v>
+        <v>673.9021723047722</v>
       </c>
       <c r="U13" t="n">
-        <v>673.9021723047723</v>
+        <v>673.9021723047722</v>
       </c>
       <c r="V13" t="n">
-        <v>673.9021723047723</v>
+        <v>673.9021723047722</v>
       </c>
       <c r="W13" t="n">
         <v>404.5557759091569</v>
@@ -5266,31 +5266,31 @@
         <v>1099.654129593632</v>
       </c>
       <c r="F14" t="n">
-        <v>708.7389984453698</v>
+        <v>708.7389984453699</v>
       </c>
       <c r="G14" t="n">
-        <v>310.5763070106398</v>
+        <v>310.57630701064</v>
       </c>
       <c r="H14" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="I14" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J14" t="n">
         <v>141.1080942721219</v>
       </c>
       <c r="K14" t="n">
-        <v>401.7401243812948</v>
+        <v>401.7401243812947</v>
       </c>
       <c r="L14" t="n">
-        <v>777.3538319345503</v>
+        <v>777.35383193455</v>
       </c>
       <c r="M14" t="n">
-        <v>1211.903000073813</v>
+        <v>1211.903000073812</v>
       </c>
       <c r="N14" t="n">
-        <v>1638.851630514924</v>
+        <v>1638.851630514923</v>
       </c>
       <c r="O14" t="n">
         <v>1996.819477572033</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>848.3363873839254</v>
+        <v>848.3363873839251</v>
       </c>
       <c r="C15" t="n">
-        <v>693.9541317441436</v>
+        <v>693.9541317441433</v>
       </c>
       <c r="D15" t="n">
-        <v>565.0904957242376</v>
+        <v>565.0904957242373</v>
       </c>
       <c r="E15" t="n">
-        <v>425.9238143601273</v>
+        <v>425.923814360127</v>
       </c>
       <c r="F15" t="n">
-        <v>299.4600300283576</v>
+        <v>299.4600300283573</v>
       </c>
       <c r="G15" t="n">
-        <v>181.4764114150702</v>
+        <v>181.4764114150701</v>
       </c>
       <c r="H15" t="n">
-        <v>94.710969746361</v>
+        <v>94.71096974636099</v>
       </c>
       <c r="I15" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J15" t="n">
         <v>109.6687925859807</v>
@@ -5363,34 +5363,34 @@
         <v>342.0818148453458</v>
       </c>
       <c r="L15" t="n">
-        <v>513.5576656533361</v>
+        <v>513.5576656533358</v>
       </c>
       <c r="M15" t="n">
         <v>1001.875005754574</v>
       </c>
       <c r="N15" t="n">
-        <v>1518.823666202155</v>
+        <v>1518.823666202154</v>
       </c>
       <c r="O15" t="n">
         <v>1925.315018142169</v>
       </c>
       <c r="P15" t="n">
-        <v>2234.557097307252</v>
+        <v>2234.557097307251</v>
       </c>
       <c r="Q15" t="n">
         <v>2388.579468296156</v>
       </c>
       <c r="R15" t="n">
-        <v>2349.478904823347</v>
+        <v>2349.478904823346</v>
       </c>
       <c r="S15" t="n">
-        <v>2208.696783232264</v>
+        <v>2208.696783232263</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.307462568204</v>
+        <v>2029.307462568203</v>
       </c>
       <c r="U15" t="n">
-        <v>1821.199120127699</v>
+        <v>1821.199120127698</v>
       </c>
       <c r="V15" t="n">
         <v>1606.117785537301</v>
@@ -5402,7 +5402,7 @@
         <v>1184.170475886257</v>
       </c>
       <c r="Y15" t="n">
-        <v>996.4809507626483</v>
+        <v>996.4809507626478</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="C16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="D16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="E16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="F16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="G16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="H16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="I16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="K16" t="n">
         <v>109.9715892849977</v>
@@ -5469,19 +5469,19 @@
         <v>587.7771540658232</v>
       </c>
       <c r="U16" t="n">
-        <v>318.6677196070792</v>
+        <v>318.6677196070793</v>
       </c>
       <c r="V16" t="n">
-        <v>318.6677196070792</v>
+        <v>318.6677196070793</v>
       </c>
       <c r="W16" t="n">
-        <v>49.32132321146383</v>
+        <v>49.32132321146389</v>
       </c>
       <c r="X16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
     </row>
     <row r="17">
@@ -5500,31 +5500,31 @@
         <v>804.4041994710844</v>
       </c>
       <c r="E17" t="n">
-        <v>438.6867205141855</v>
+        <v>438.6867205141854</v>
       </c>
       <c r="F17" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="G17" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="H17" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="I17" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J17" t="n">
-        <v>141.1080942721219</v>
+        <v>141.1080942721223</v>
       </c>
       <c r="K17" t="n">
-        <v>401.7401243812947</v>
+        <v>401.7401243812951</v>
       </c>
       <c r="L17" t="n">
-        <v>777.35383193455</v>
+        <v>777.3538319345505</v>
       </c>
       <c r="M17" t="n">
-        <v>1211.903000073812</v>
+        <v>1211.903000073813</v>
       </c>
       <c r="N17" t="n">
         <v>1638.851630514923</v>
@@ -5588,10 +5588,10 @@
         <v>181.4764114150702</v>
       </c>
       <c r="H18" t="n">
-        <v>94.71096974636099</v>
+        <v>94.710969746361</v>
       </c>
       <c r="I18" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J18" t="n">
         <v>109.6687925859807</v>
@@ -5609,7 +5609,7 @@
         <v>1721.260201657076</v>
       </c>
       <c r="O18" t="n">
-        <v>2079.337389131073</v>
+        <v>2079.337389131074</v>
       </c>
       <c r="P18" t="n">
         <v>2388.579468296156</v>
@@ -5627,7 +5627,7 @@
         <v>2029.307462568204</v>
       </c>
       <c r="U18" t="n">
-        <v>1821.199120127699</v>
+        <v>1821.199120127698</v>
       </c>
       <c r="V18" t="n">
         <v>1606.117785537301</v>
@@ -5639,7 +5639,7 @@
         <v>1184.170475886257</v>
       </c>
       <c r="Y18" t="n">
-        <v>996.4809507626483</v>
+        <v>996.4809507626481</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="C19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="D19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="E19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="F19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="G19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="H19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="I19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="K19" t="n">
         <v>109.9715892849977</v>
@@ -5706,19 +5706,19 @@
         <v>316.8810238246671</v>
       </c>
       <c r="U19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="V19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="W19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="X19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1029.498649208522</v>
       </c>
       <c r="D20" t="n">
-        <v>691.3037242431164</v>
+        <v>691.3037242431172</v>
       </c>
       <c r="E20" t="n">
-        <v>691.3037242431164</v>
+        <v>691.3037242431172</v>
       </c>
       <c r="F20" t="n">
         <v>445.9342808006531</v>
       </c>
       <c r="G20" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="H20" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="I20" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J20" t="n">
-        <v>141.1080942721217</v>
+        <v>141.1080942721219</v>
       </c>
       <c r="K20" t="n">
-        <v>401.7401243812945</v>
+        <v>401.7401243812947</v>
       </c>
       <c r="L20" t="n">
         <v>777.35383193455</v>
@@ -5788,10 +5788,10 @@
         <v>2026.583629159251</v>
       </c>
       <c r="V20" t="n">
-        <v>1715.591515457025</v>
+        <v>1715.591515457026</v>
       </c>
       <c r="W20" t="n">
-        <v>1382.893633828256</v>
+        <v>1382.893633828257</v>
       </c>
       <c r="X20" t="n">
         <v>1029.498649208522</v>
@@ -5825,46 +5825,46 @@
         <v>181.4764114150702</v>
       </c>
       <c r="H21" t="n">
-        <v>94.71096974636099</v>
+        <v>94.710969746361</v>
       </c>
       <c r="I21" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J21" t="n">
         <v>109.6687925859807</v>
       </c>
       <c r="K21" t="n">
-        <v>139.6452793904236</v>
+        <v>139.6452793904241</v>
       </c>
       <c r="L21" t="n">
-        <v>513.5576656533358</v>
+        <v>513.5576656533362</v>
       </c>
       <c r="M21" t="n">
         <v>1001.875005754574</v>
       </c>
       <c r="N21" t="n">
-        <v>1518.823666202154</v>
+        <v>1518.823666202155</v>
       </c>
       <c r="O21" t="n">
         <v>1925.315018142169</v>
       </c>
       <c r="P21" t="n">
-        <v>2234.557097307251</v>
+        <v>2234.557097307252</v>
       </c>
       <c r="Q21" t="n">
         <v>2388.579468296156</v>
       </c>
       <c r="R21" t="n">
-        <v>2349.478904823346</v>
+        <v>2349.478904823347</v>
       </c>
       <c r="S21" t="n">
-        <v>2208.696783232263</v>
+        <v>2208.696783232264</v>
       </c>
       <c r="T21" t="n">
         <v>2029.307462568204</v>
       </c>
       <c r="U21" t="n">
-        <v>1821.199120127699</v>
+        <v>1821.199120127698</v>
       </c>
       <c r="V21" t="n">
         <v>1606.117785537301</v>
@@ -5876,7 +5876,7 @@
         <v>1184.170475886257</v>
       </c>
       <c r="Y21" t="n">
-        <v>996.4809507626483</v>
+        <v>996.4809507626481</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="C22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="D22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="E22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="F22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="G22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="H22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="I22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="K22" t="n">
         <v>109.9715892849977</v>
@@ -5937,25 +5937,25 @@
         <v>587.7771540658232</v>
       </c>
       <c r="S22" t="n">
-        <v>391.4515219123718</v>
+        <v>391.4515219123719</v>
       </c>
       <c r="T22" t="n">
         <v>316.8810238246671</v>
       </c>
       <c r="U22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="V22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="W22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="X22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.77158936592312</v>
+        <v>47.77158936592313</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1038.207849179861</v>
       </c>
       <c r="F23" t="n">
-        <v>647.2927180315987</v>
+        <v>647.2927180315988</v>
       </c>
       <c r="G23" t="n">
-        <v>501.4483130400396</v>
+        <v>501.4483130400395</v>
       </c>
       <c r="H23" t="n">
-        <v>191.5627422297264</v>
+        <v>191.5627422297263</v>
       </c>
       <c r="I23" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J23" t="n">
-        <v>141.1080942721223</v>
+        <v>141.1080942721219</v>
       </c>
       <c r="K23" t="n">
-        <v>401.7401243812951</v>
+        <v>401.7401243812947</v>
       </c>
       <c r="L23" t="n">
-        <v>777.3538319345507</v>
+        <v>777.35383193455</v>
       </c>
       <c r="M23" t="n">
-        <v>1211.903000073813</v>
+        <v>1211.903000073812</v>
       </c>
       <c r="N23" t="n">
-        <v>1638.851630514924</v>
+        <v>1638.851630514923</v>
       </c>
       <c r="O23" t="n">
-        <v>1996.819477572034</v>
+        <v>1996.819477572033</v>
       </c>
       <c r="P23" t="n">
-        <v>2264.6623702489</v>
+        <v>2264.662370248899</v>
       </c>
       <c r="Q23" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="R23" t="n">
         <v>2336.682712558506</v>
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>848.3363873839257</v>
+        <v>848.3363873839254</v>
       </c>
       <c r="C24" t="n">
-        <v>693.954131744144</v>
+        <v>693.9541317441436</v>
       </c>
       <c r="D24" t="n">
-        <v>565.0904957242379</v>
+        <v>565.0904957242376</v>
       </c>
       <c r="E24" t="n">
-        <v>425.9238143601276</v>
+        <v>425.9238143601274</v>
       </c>
       <c r="F24" t="n">
-        <v>299.4600300283578</v>
+        <v>299.4600300283576</v>
       </c>
       <c r="G24" t="n">
-        <v>181.4764114150703</v>
+        <v>181.4764114150702</v>
       </c>
       <c r="H24" t="n">
-        <v>94.71096974636106</v>
+        <v>94.710969746361</v>
       </c>
       <c r="I24" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J24" t="n">
-        <v>109.6687925859808</v>
+        <v>109.6687925859807</v>
       </c>
       <c r="K24" t="n">
         <v>342.0818148453458</v>
       </c>
       <c r="L24" t="n">
-        <v>715.994201108258</v>
+        <v>715.9942011082579</v>
       </c>
       <c r="M24" t="n">
-        <v>1001.875005754575</v>
+        <v>1001.875005754574</v>
       </c>
       <c r="N24" t="n">
         <v>1518.823666202155</v>
@@ -6089,31 +6089,31 @@
         <v>2234.557097307252</v>
       </c>
       <c r="Q24" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="R24" t="n">
         <v>2349.478904823347</v>
       </c>
       <c r="S24" t="n">
-        <v>2208.696783232265</v>
+        <v>2208.696783232264</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.307462568205</v>
+        <v>2029.307462568204</v>
       </c>
       <c r="U24" t="n">
-        <v>1821.199120127699</v>
+        <v>1821.199120127698</v>
       </c>
       <c r="V24" t="n">
-        <v>1606.117785537302</v>
+        <v>1606.117785537301</v>
       </c>
       <c r="W24" t="n">
-        <v>1371.951202450445</v>
+        <v>1371.951202450444</v>
       </c>
       <c r="X24" t="n">
         <v>1184.170475886257</v>
       </c>
       <c r="Y24" t="n">
-        <v>996.4809507626486</v>
+        <v>996.4809507626481</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="C25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="D25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="E25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="F25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="G25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="H25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="I25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="J25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="K25" t="n">
         <v>109.9715892849977</v>
@@ -6168,16 +6168,16 @@
         <v>740.7665866088712</v>
       </c>
       <c r="Q25" t="n">
-        <v>721.2917880793375</v>
+        <v>721.2917880793376</v>
       </c>
       <c r="R25" t="n">
-        <v>587.7771540658231</v>
+        <v>587.7771540658232</v>
       </c>
       <c r="S25" t="n">
-        <v>587.7771540658231</v>
+        <v>587.7771540658232</v>
       </c>
       <c r="T25" t="n">
-        <v>380.02291626096</v>
+        <v>380.0229162609602</v>
       </c>
       <c r="U25" t="n">
         <v>317.1179857615385</v>
@@ -6186,13 +6186,13 @@
         <v>317.1179857615385</v>
       </c>
       <c r="W25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="X25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.77158936592314</v>
+        <v>47.77158936592313</v>
       </c>
     </row>
     <row r="26">
@@ -6232,7 +6232,7 @@
         <v>419.1189457353145</v>
       </c>
       <c r="L26" t="n">
-        <v>794.7326532885702</v>
+        <v>794.7326532885698</v>
       </c>
       <c r="M26" t="n">
         <v>1245.515262085275</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>874.0358667633682</v>
+        <v>874.0358667633677</v>
       </c>
       <c r="C27" t="n">
-        <v>716.1458827403198</v>
+        <v>716.1458827403194</v>
       </c>
       <c r="D27" t="n">
-        <v>583.7745183371472</v>
+        <v>583.7745183371468</v>
       </c>
       <c r="E27" t="n">
-        <v>441.1001085897705</v>
+        <v>441.10010858977</v>
       </c>
       <c r="F27" t="n">
-        <v>311.1285958747341</v>
+        <v>311.1285958747337</v>
       </c>
       <c r="G27" t="n">
-        <v>189.6372488781801</v>
+        <v>189.6372488781797</v>
       </c>
       <c r="H27" t="n">
         <v>99.36407882620441</v>
@@ -6329,25 +6329,25 @@
         <v>2445.848503124998</v>
       </c>
       <c r="R27" t="n">
-        <v>2403.240211268921</v>
+        <v>2403.240211268922</v>
       </c>
       <c r="S27" t="n">
         <v>2258.950361294573</v>
       </c>
       <c r="T27" t="n">
-        <v>2076.053312247247</v>
+        <v>2076.053312247246</v>
       </c>
       <c r="U27" t="n">
         <v>1864.437241423474</v>
       </c>
       <c r="V27" t="n">
-        <v>1645.84817844981</v>
+        <v>1645.848178449809</v>
       </c>
       <c r="W27" t="n">
-        <v>1408.173866979687</v>
+        <v>1408.173866979686</v>
       </c>
       <c r="X27" t="n">
-        <v>1216.885412032233</v>
+        <v>1216.885412032232</v>
       </c>
       <c r="Y27" t="n">
         <v>1025.688158525357</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>759.9306716236111</v>
+        <v>759.9306716236113</v>
       </c>
       <c r="C29" t="n">
-        <v>759.9306716236111</v>
+        <v>759.9306716236113</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9306716236111</v>
+        <v>759.9306716236113</v>
       </c>
       <c r="E29" t="n">
-        <v>443.3398295940289</v>
+        <v>443.3398295940288</v>
       </c>
       <c r="F29" t="n">
         <v>48.91697006249996</v>
@@ -6469,7 +6469,7 @@
         <v>419.1189457353145</v>
       </c>
       <c r="L29" t="n">
-        <v>810.9660939460127</v>
+        <v>810.966093946013</v>
       </c>
       <c r="M29" t="n">
         <v>1245.515262085275</v>
@@ -6508,7 +6508,7 @@
         <v>1133.506958341344</v>
       </c>
       <c r="Y29" t="n">
-        <v>759.9306716236111</v>
+        <v>759.9306716236113</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>441.1001085897706</v>
       </c>
       <c r="F30" t="n">
-        <v>311.1285958747342</v>
+        <v>311.1285958747343</v>
       </c>
       <c r="G30" t="n">
-        <v>189.6372488781802</v>
+        <v>189.6372488781801</v>
       </c>
       <c r="H30" t="n">
-        <v>99.36407882620441</v>
+        <v>99.36407882620438</v>
       </c>
       <c r="I30" t="n">
         <v>48.91697006249996</v>
@@ -6569,7 +6569,7 @@
         <v>2403.240211268921</v>
       </c>
       <c r="S30" t="n">
-        <v>2258.950361294573</v>
+        <v>2258.950361294572</v>
       </c>
       <c r="T30" t="n">
         <v>2076.053312247246</v>
@@ -6627,7 +6627,7 @@
         <v>107.679045393135</v>
       </c>
       <c r="L31" t="n">
-        <v>233.8609309387813</v>
+        <v>233.8609309387814</v>
       </c>
       <c r="M31" t="n">
         <v>376.408713915834</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1425.709932057945</v>
+        <v>1425.709932057944</v>
       </c>
       <c r="C32" t="n">
         <v>1093.381234016957</v>
       </c>
       <c r="D32" t="n">
-        <v>771.7493543096301</v>
+        <v>771.74935430963</v>
       </c>
       <c r="E32" t="n">
-        <v>422.5949206108098</v>
+        <v>422.5949206108097</v>
       </c>
       <c r="F32" t="n">
         <v>48.24283472062607</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>769.5001348315017</v>
+        <v>769.5001348315014</v>
       </c>
       <c r="C33" t="n">
-        <v>595.0471055503747</v>
+        <v>595.0471055503745</v>
       </c>
       <c r="D33" t="n">
-        <v>482.7465147885474</v>
+        <v>482.7465147885471</v>
       </c>
       <c r="E33" t="n">
-        <v>360.1428786825157</v>
+        <v>360.1428786825155</v>
       </c>
       <c r="F33" t="n">
-        <v>250.2421396088246</v>
+        <v>250.2421396088244</v>
       </c>
       <c r="G33" t="n">
-        <v>148.8215662536158</v>
+        <v>148.8215662536157</v>
       </c>
       <c r="H33" t="n">
-        <v>78.6191698429853</v>
+        <v>78.61916984298524</v>
       </c>
       <c r="I33" t="n">
         <v>48.24283472062607</v>
@@ -6864,34 +6864,34 @@
         <v>126.6762752971436</v>
       </c>
       <c r="L34" t="n">
-        <v>272.5295260886724</v>
+        <v>272.5295260886725</v>
       </c>
       <c r="M34" t="n">
-        <v>434.7486743116075</v>
+        <v>434.7486743116076</v>
       </c>
       <c r="N34" t="n">
-        <v>599.3989662224724</v>
+        <v>599.3989662224726</v>
       </c>
       <c r="O34" t="n">
-        <v>738.2047710000186</v>
+        <v>738.2047710000189</v>
       </c>
       <c r="P34" t="n">
-        <v>838.6384759082315</v>
+        <v>838.638475908232</v>
       </c>
       <c r="Q34" t="n">
-        <v>835.7267226367765</v>
+        <v>835.726722636777</v>
       </c>
       <c r="R34" t="n">
-        <v>718.7751338813407</v>
+        <v>718.7751338813413</v>
       </c>
       <c r="S34" t="n">
-        <v>710.2680477114102</v>
+        <v>710.2680477114101</v>
       </c>
       <c r="T34" t="n">
-        <v>519.0768551646258</v>
+        <v>519.0768551646257</v>
       </c>
       <c r="U34" t="n">
-        <v>519.0768551646258</v>
+        <v>519.0768551646257</v>
       </c>
       <c r="V34" t="n">
         <v>301.0261858581628</v>
@@ -6922,16 +6922,16 @@
         <v>859.8306259989179</v>
       </c>
       <c r="E35" t="n">
-        <v>510.6761923000975</v>
+        <v>510.6761923000976</v>
       </c>
       <c r="F35" t="n">
-        <v>174.9996969716477</v>
+        <v>174.9996969716476</v>
       </c>
       <c r="G35" t="n">
-        <v>174.9996969716477</v>
+        <v>174.9996969716476</v>
       </c>
       <c r="H35" t="n">
-        <v>174.9996969716477</v>
+        <v>174.9996969716476</v>
       </c>
       <c r="I35" t="n">
         <v>47.77158936592312</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>732.3950705773749</v>
+        <v>732.3950705773744</v>
       </c>
       <c r="C36" t="n">
-        <v>594.5758601956718</v>
+        <v>594.5758601956713</v>
       </c>
       <c r="D36" t="n">
-        <v>482.2752694338444</v>
+        <v>482.2752694338441</v>
       </c>
       <c r="E36" t="n">
-        <v>359.6716333278127</v>
+        <v>359.6716333278125</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7708942541216</v>
+        <v>249.7708942541215</v>
       </c>
       <c r="G36" t="n">
-        <v>148.3503208989129</v>
+        <v>148.3503208989127</v>
       </c>
       <c r="H36" t="n">
-        <v>78.14792448828234</v>
+        <v>78.14792448828229</v>
       </c>
       <c r="I36" t="n">
         <v>47.77158936592312</v>
@@ -7055,13 +7055,13 @@
         <v>1533.825744396707</v>
       </c>
       <c r="W36" t="n">
-        <v>1279.588387668506</v>
+        <v>1279.588387668505</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.736887462973</v>
+        <v>1071.736887462972</v>
       </c>
       <c r="Y36" t="n">
-        <v>863.976588698019</v>
+        <v>863.9765886980185</v>
       </c>
     </row>
     <row r="37">
@@ -7098,34 +7098,34 @@
         <v>47.77158936592312</v>
       </c>
       <c r="K37" t="n">
-        <v>126.2050299424406</v>
+        <v>126.2050299424407</v>
       </c>
       <c r="L37" t="n">
-        <v>272.0582807339694</v>
+        <v>272.0582807339695</v>
       </c>
       <c r="M37" t="n">
-        <v>434.2774289569045</v>
+        <v>434.2774289569047</v>
       </c>
       <c r="N37" t="n">
-        <v>598.9277208677694</v>
+        <v>598.9277208677697</v>
       </c>
       <c r="O37" t="n">
-        <v>737.7335256453156</v>
+        <v>737.733525645316</v>
       </c>
       <c r="P37" t="n">
-        <v>838.1672305535285</v>
+        <v>838.1672305535291</v>
       </c>
       <c r="Q37" t="n">
-        <v>835.2554772820735</v>
+        <v>835.2554772820741</v>
       </c>
       <c r="R37" t="n">
-        <v>718.3038885266377</v>
+        <v>718.3038885266384</v>
       </c>
       <c r="S37" t="n">
-        <v>538.541301631265</v>
+        <v>538.5413016312658</v>
       </c>
       <c r="T37" t="n">
-        <v>347.3501090844806</v>
+        <v>347.3501090844815</v>
       </c>
       <c r="U37" t="n">
         <v>265.8222586723861</v>
@@ -7180,10 +7180,10 @@
         <v>401.7401243812947</v>
       </c>
       <c r="L38" t="n">
-        <v>777.3538319345503</v>
+        <v>777.35383193455</v>
       </c>
       <c r="M38" t="n">
-        <v>1211.903000073813</v>
+        <v>1211.903000073812</v>
       </c>
       <c r="N38" t="n">
         <v>1638.851630514923</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>769.0288894767987</v>
+        <v>769.0288894767986</v>
       </c>
       <c r="C39" t="n">
-        <v>631.2096790950956</v>
+        <v>631.2096790950955</v>
       </c>
       <c r="D39" t="n">
-        <v>518.9090883332682</v>
+        <v>518.9090883332681</v>
       </c>
       <c r="E39" t="n">
-        <v>396.3054522272366</v>
+        <v>396.3054522272365</v>
       </c>
       <c r="F39" t="n">
         <v>286.4047131535455</v>
@@ -7292,13 +7292,13 @@
         <v>1570.459563296131</v>
       </c>
       <c r="W39" t="n">
-        <v>1316.22220656793</v>
+        <v>1316.222206567929</v>
       </c>
       <c r="X39" t="n">
-        <v>1145.004525261821</v>
+        <v>1145.00452526182</v>
       </c>
       <c r="Y39" t="n">
-        <v>937.2442264968668</v>
+        <v>937.2442264968665</v>
       </c>
     </row>
     <row r="40">
@@ -7335,34 +7335,34 @@
         <v>47.77158936592312</v>
       </c>
       <c r="K40" t="n">
-        <v>126.2050299424406</v>
+        <v>126.2050299424407</v>
       </c>
       <c r="L40" t="n">
         <v>272.0582807339695</v>
       </c>
       <c r="M40" t="n">
-        <v>434.2774289569046</v>
+        <v>434.2774289569047</v>
       </c>
       <c r="N40" t="n">
-        <v>598.9277208677695</v>
+        <v>598.9277208677697</v>
       </c>
       <c r="O40" t="n">
-        <v>737.7335256453158</v>
+        <v>737.733525645316</v>
       </c>
       <c r="P40" t="n">
-        <v>838.1672305535288</v>
+        <v>838.1672305535291</v>
       </c>
       <c r="Q40" t="n">
-        <v>835.2554772820739</v>
+        <v>835.2554772820741</v>
       </c>
       <c r="R40" t="n">
-        <v>718.3038885266382</v>
+        <v>718.3038885266384</v>
       </c>
       <c r="S40" t="n">
-        <v>538.5413016312656</v>
+        <v>538.5413016312658</v>
       </c>
       <c r="T40" t="n">
-        <v>347.3501090844812</v>
+        <v>347.3501090844815</v>
       </c>
       <c r="U40" t="n">
         <v>231.9303496100293</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>794.1435701247867</v>
+        <v>794.1435701247871</v>
       </c>
       <c r="C41" t="n">
-        <v>445.2518268257203</v>
+        <v>445.2518268257207</v>
       </c>
       <c r="D41" t="n">
-        <v>357.6571601762364</v>
+        <v>357.6571601762363</v>
       </c>
       <c r="E41" t="n">
-        <v>357.6571601762364</v>
+        <v>357.6571601762363</v>
       </c>
       <c r="F41" t="n">
-        <v>357.6571601762364</v>
+        <v>357.6571601762363</v>
       </c>
       <c r="G41" t="n">
-        <v>357.6571601762364</v>
+        <v>357.6571601762363</v>
       </c>
       <c r="H41" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="I41" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J41" t="n">
         <v>141.1080942721219</v>
@@ -7456,7 +7456,7 @@
         <v>1530.74119488203</v>
       </c>
       <c r="Y41" t="n">
-        <v>1160.672636547563</v>
+        <v>1160.672636547564</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>848.3363873839257</v>
+        <v>848.3363873839253</v>
       </c>
       <c r="C42" t="n">
-        <v>693.954131744144</v>
+        <v>693.9541317441435</v>
       </c>
       <c r="D42" t="n">
-        <v>565.0904957242378</v>
+        <v>565.0904957242375</v>
       </c>
       <c r="E42" t="n">
-        <v>425.9238143601275</v>
+        <v>425.9238143601273</v>
       </c>
       <c r="F42" t="n">
-        <v>299.4600300283577</v>
+        <v>299.4600300283575</v>
       </c>
       <c r="G42" t="n">
-        <v>181.4764114150702</v>
+        <v>181.4764114150701</v>
       </c>
       <c r="H42" t="n">
-        <v>94.71096974636103</v>
+        <v>94.71096974636097</v>
       </c>
       <c r="I42" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J42" t="n">
-        <v>47.77158936592313</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="K42" t="n">
         <v>280.1846116252882</v>
@@ -7517,25 +7517,25 @@
         <v>2349.478904823347</v>
       </c>
       <c r="S42" t="n">
-        <v>2208.696783232264</v>
+        <v>2208.696783232263</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.307462568204</v>
+        <v>2029.307462568203</v>
       </c>
       <c r="U42" t="n">
-        <v>1821.199120127699</v>
+        <v>1821.199120127698</v>
       </c>
       <c r="V42" t="n">
         <v>1606.117785537301</v>
       </c>
       <c r="W42" t="n">
-        <v>1371.951202450445</v>
+        <v>1371.951202450444</v>
       </c>
       <c r="X42" t="n">
         <v>1184.170475886257</v>
       </c>
       <c r="Y42" t="n">
-        <v>996.4809507626484</v>
+        <v>996.480950762648</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="C43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="D43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="E43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="F43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="G43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="H43" t="n">
-        <v>1815.480170380857</v>
+        <v>1815.480170380856</v>
       </c>
       <c r="I43" t="n">
         <v>1695.584471053208</v>
@@ -7572,16 +7572,16 @@
         <v>1695.584471053208</v>
       </c>
       <c r="K43" t="n">
-        <v>1757.784470972283</v>
+        <v>1757.784470972282</v>
       </c>
       <c r="L43" t="n">
-        <v>1887.404281106369</v>
+        <v>1887.404281106368</v>
       </c>
       <c r="M43" t="n">
-        <v>2033.389988671861</v>
+        <v>2033.38998867186</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.806839925283</v>
+        <v>2181.806839925282</v>
       </c>
       <c r="O43" t="n">
         <v>2304.379204045386</v>
@@ -7608,7 +7608,7 @@
         <v>2388.579468296156</v>
       </c>
       <c r="W43" t="n">
-        <v>2119.233071900541</v>
+        <v>2119.23307190054</v>
       </c>
       <c r="X43" t="n">
         <v>1977.057861569751</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1119.539645118721</v>
+        <v>1119.53964511872</v>
       </c>
       <c r="C44" t="n">
         <v>836.8494119489155</v>
@@ -7639,13 +7639,13 @@
         <v>445.9342808006531</v>
       </c>
       <c r="G44" t="n">
-        <v>47.77158936592315</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="H44" t="n">
-        <v>47.77158936592315</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="I44" t="n">
-        <v>47.77158936592315</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J44" t="n">
         <v>141.1080942721219</v>
@@ -7654,46 +7654,46 @@
         <v>401.7401243812947</v>
       </c>
       <c r="L44" t="n">
-        <v>777.35383193455</v>
+        <v>777.3538319345504</v>
       </c>
       <c r="M44" t="n">
-        <v>1211.903000073812</v>
+        <v>1211.903000073813</v>
       </c>
       <c r="N44" t="n">
         <v>1638.851630514923</v>
       </c>
       <c r="O44" t="n">
-        <v>1996.819477572034</v>
+        <v>1996.819477572033</v>
       </c>
       <c r="P44" t="n">
-        <v>2264.6623702489</v>
+        <v>2264.662370248899</v>
       </c>
       <c r="Q44" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="R44" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="S44" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="T44" t="n">
-        <v>2188.835151504733</v>
+        <v>2188.835151504732</v>
       </c>
       <c r="U44" t="n">
-        <v>2188.835151504733</v>
+        <v>2188.835151504732</v>
       </c>
       <c r="V44" t="n">
-        <v>2188.835151504733</v>
+        <v>2188.835151504732</v>
       </c>
       <c r="W44" t="n">
-        <v>1856.137269875964</v>
+        <v>1856.137269875963</v>
       </c>
       <c r="X44" t="n">
-        <v>1856.137269875964</v>
+        <v>1856.137269875963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.068711541498</v>
+        <v>1486.068711541497</v>
       </c>
     </row>
     <row r="45">
@@ -7709,22 +7709,22 @@
         <v>693.9541317441438</v>
       </c>
       <c r="D45" t="n">
-        <v>565.0904957242378</v>
+        <v>565.0904957242377</v>
       </c>
       <c r="E45" t="n">
-        <v>425.9238143601276</v>
+        <v>425.9238143601274</v>
       </c>
       <c r="F45" t="n">
         <v>299.4600300283577</v>
       </c>
       <c r="G45" t="n">
-        <v>181.4764114150703</v>
+        <v>181.4764114150702</v>
       </c>
       <c r="H45" t="n">
-        <v>94.71096974636106</v>
+        <v>94.710969746361</v>
       </c>
       <c r="I45" t="n">
-        <v>47.77158936592315</v>
+        <v>47.77158936592312</v>
       </c>
       <c r="J45" t="n">
         <v>109.6687925859807</v>
@@ -7739,25 +7739,25 @@
         <v>1204.311541209496</v>
       </c>
       <c r="N45" t="n">
-        <v>1518.823666202156</v>
+        <v>1518.823666202154</v>
       </c>
       <c r="O45" t="n">
-        <v>1925.31501814217</v>
+        <v>1925.315018142169</v>
       </c>
       <c r="P45" t="n">
-        <v>2234.557097307253</v>
+        <v>2234.557097307251</v>
       </c>
       <c r="Q45" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="R45" t="n">
-        <v>2349.478904823347</v>
+        <v>2349.478904823346</v>
       </c>
       <c r="S45" t="n">
-        <v>2208.696783232265</v>
+        <v>2208.696783232263</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.307462568205</v>
+        <v>2029.307462568204</v>
       </c>
       <c r="U45" t="n">
         <v>1821.199120127699</v>
@@ -7766,13 +7766,13 @@
         <v>1606.117785537301</v>
       </c>
       <c r="W45" t="n">
-        <v>1371.951202450445</v>
+        <v>1371.951202450444</v>
       </c>
       <c r="X45" t="n">
         <v>1184.170475886257</v>
       </c>
       <c r="Y45" t="n">
-        <v>996.4809507626484</v>
+        <v>996.4809507626483</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1979.66357660481</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="C46" t="n">
-        <v>1979.66357660481</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="D46" t="n">
-        <v>1849.61771083382</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="E46" t="n">
-        <v>1849.61771083382</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="F46" t="n">
-        <v>1849.61771083382</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="G46" t="n">
-        <v>1849.61771083382</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="H46" t="n">
-        <v>1849.61771083382</v>
+        <v>1849.617710833819</v>
       </c>
       <c r="I46" t="n">
-        <v>1729.722011506172</v>
+        <v>1729.72201150617</v>
       </c>
       <c r="J46" t="n">
-        <v>1695.584471053209</v>
+        <v>1695.584471053208</v>
       </c>
       <c r="K46" t="n">
-        <v>1757.784470972284</v>
+        <v>1757.784470972282</v>
       </c>
       <c r="L46" t="n">
-        <v>1887.40428110637</v>
+        <v>1887.404281106368</v>
       </c>
       <c r="M46" t="n">
-        <v>2033.389988671862</v>
+        <v>2033.38998867186</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.806839925284</v>
+        <v>2181.806839925282</v>
       </c>
       <c r="O46" t="n">
-        <v>2304.379204045387</v>
+        <v>2304.379204045386</v>
       </c>
       <c r="P46" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2388.579468296157</v>
+        <v>2388.579468296156</v>
       </c>
       <c r="R46" t="n">
-        <v>2255.064834282643</v>
+        <v>2255.064834282642</v>
       </c>
       <c r="S46" t="n">
-        <v>2255.064834282643</v>
+        <v>2255.064834282642</v>
       </c>
       <c r="T46" t="n">
-        <v>2255.064834282643</v>
+        <v>2255.064834282642</v>
       </c>
       <c r="U46" t="n">
-        <v>1985.955399823899</v>
+        <v>1985.955399823898</v>
       </c>
       <c r="V46" t="n">
-        <v>1985.955399823899</v>
+        <v>1985.955399823898</v>
       </c>
       <c r="W46" t="n">
-        <v>1985.955399823899</v>
+        <v>1985.955399823898</v>
       </c>
       <c r="X46" t="n">
-        <v>1985.955399823899</v>
+        <v>1985.955399823898</v>
       </c>
       <c r="Y46" t="n">
-        <v>1985.955399823899</v>
+        <v>1985.955399823898</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>63.56860784540115</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5038471905793</v>
+        <v>113.981419695572</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>166.3589963590937</v>
+        <v>166.3589963590934</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>344.9591228464087</v>
+        <v>344.9591228464096</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.4991352218039</v>
+        <v>54.49913522180391</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599053</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>59.9838880682128</v>
+        <v>59.98388806821328</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>261.2237148056348</v>
+        <v>261.2237148056346</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627458</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.11836628649132</v>
+        <v>68.11836628649087</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>274.8610253991891</v>
+        <v>274.8610253991877</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.8637757585488</v>
+        <v>362.8637757585487</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>362.06030416733</v>
+        <v>362.0603041673299</v>
       </c>
       <c r="F11" t="n">
-        <v>387.0059798367797</v>
+        <v>387.0059798367796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>134.3727252256137</v>
+        <v>134.372725225613</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.7454071132806</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E13" t="n">
         <v>126.5638967416374</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5509821179995</v>
+        <v>125.5509821179994</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H13" t="n">
         <v>137.3655026058876</v>
@@ -23439,7 +23439,7 @@
         <v>118.6967423343718</v>
       </c>
       <c r="J13" t="n">
-        <v>33.79616504843284</v>
+        <v>33.79616504843283</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S13" t="n">
-        <v>147.4466562150972</v>
+        <v>147.446656215097</v>
       </c>
       <c r="T13" t="n">
         <v>205.6766954268144</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.8637757585488</v>
+        <v>362.8637757585487</v>
       </c>
       <c r="C14" t="n">
         <v>345.4028258660758</v>
       </c>
       <c r="D14" t="n">
-        <v>334.8129757157512</v>
+        <v>334.8129757157511</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>46.61004463394056</v>
+        <v>46.61004463394028</v>
       </c>
       <c r="I14" t="n">
         <v>142.3532413351651</v>
@@ -23655,19 +23655,19 @@
         <v>159.9619142770055</v>
       </c>
       <c r="C16" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D16" t="n">
-        <v>128.7454071132806</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E16" t="n">
         <v>126.5638967416374</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5509821179995</v>
+        <v>125.5509821179994</v>
       </c>
       <c r="G16" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H16" t="n">
         <v>137.3655026058876</v>
@@ -23676,7 +23676,7 @@
         <v>118.6967423343718</v>
       </c>
       <c r="J16" t="n">
-        <v>33.79616504843284</v>
+        <v>33.79616504843283</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3053529770201</v>
+        <v>204.30535297702</v>
       </c>
       <c r="Y16" t="n">
         <v>198.714587447163</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>334.8129757157512</v>
+        <v>334.8129757157511</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>394.1810645203827</v>
+        <v>394.1810645203826</v>
       </c>
       <c r="H17" t="n">
-        <v>306.7867151022101</v>
+        <v>306.78671510221</v>
       </c>
       <c r="I17" t="n">
         <v>142.3532413351651</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.37778818027415</v>
+        <v>51.37778818027414</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>172.5590315496646</v>
+        <v>172.5590315496641</v>
       </c>
       <c r="U17" t="n">
         <v>231.3754584357191</v>
@@ -23797,7 +23797,7 @@
         <v>329.3709028124812</v>
       </c>
       <c r="X17" t="n">
-        <v>349.8610347735373</v>
+        <v>349.8610347735372</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>159.9619142770055</v>
       </c>
       <c r="C19" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D19" t="n">
-        <v>128.7454071132806</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E19" t="n">
         <v>126.5638967416374</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5509821179995</v>
+        <v>125.5509821179994</v>
       </c>
       <c r="G19" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H19" t="n">
         <v>137.3655026058876</v>
@@ -23913,7 +23913,7 @@
         <v>118.6967423343718</v>
       </c>
       <c r="J19" t="n">
-        <v>33.79616504843285</v>
+        <v>33.79616504843283</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>266.6529324316592</v>
       </c>
       <c r="X19" t="n">
-        <v>205.8395894841054</v>
+        <v>205.8395894841053</v>
       </c>
       <c r="Y19" t="n">
         <v>198.714587447163</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>362.8637757585488</v>
+        <v>362.8637757585487</v>
       </c>
       <c r="C20" t="n">
         <v>345.4028258660758</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>362.06030416733</v>
+        <v>362.0603041673299</v>
       </c>
       <c r="F20" t="n">
-        <v>144.090230828741</v>
+        <v>144.0902308287401</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>306.7867151022101</v>
+        <v>306.78671510221</v>
       </c>
       <c r="I20" t="n">
         <v>142.3532413351651</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.37778818027415</v>
+        <v>51.37778818027414</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>159.9619142770055</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D22" t="n">
-        <v>128.7454071132806</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E22" t="n">
         <v>126.5638967416374</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5509821179995</v>
+        <v>125.5509821179994</v>
       </c>
       <c r="G22" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H22" t="n">
         <v>137.3655026058876</v>
@@ -24150,7 +24150,7 @@
         <v>118.6967423343718</v>
       </c>
       <c r="J22" t="n">
-        <v>33.79616504843285</v>
+        <v>33.79616504843283</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>131.8519023199867</v>
+        <v>131.8519023199866</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>266.6529324316592</v>
       </c>
       <c r="X22" t="n">
-        <v>205.8395894841054</v>
+        <v>205.8395894841053</v>
       </c>
       <c r="Y22" t="n">
         <v>198.714587447163</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>362.8637757585489</v>
+        <v>362.8637757585487</v>
       </c>
       <c r="C23" t="n">
         <v>345.4028258660758</v>
       </c>
       <c r="D23" t="n">
-        <v>334.8129757157512</v>
+        <v>334.8129757157511</v>
       </c>
       <c r="E23" t="n">
-        <v>362.0603041673301</v>
+        <v>362.0603041673299</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>249.7951035787392</v>
+        <v>249.7951035787389</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>349.8610347735373</v>
+        <v>349.8610347735372</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,28 +24366,28 @@
         <v>159.9619142770055</v>
       </c>
       <c r="C25" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D25" t="n">
-        <v>128.7454071132806</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E25" t="n">
         <v>126.5638967416374</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5509821179995</v>
+        <v>125.5509821179994</v>
       </c>
       <c r="G25" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H25" t="n">
         <v>137.3655026058876</v>
       </c>
       <c r="I25" t="n">
-        <v>118.6967423343719</v>
+        <v>118.6967423343718</v>
       </c>
       <c r="J25" t="n">
-        <v>33.79616504843287</v>
+        <v>33.79616504843283</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>204.1424589197294</v>
+        <v>204.1424589197291</v>
       </c>
       <c r="V25" t="n">
-        <v>232.2675774188963</v>
+        <v>232.2675774188962</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>205.8395894841054</v>
+        <v>205.8395894841053</v>
       </c>
       <c r="Y25" t="n">
         <v>198.714587447163</v>
@@ -24663,7 +24663,7 @@
         <v>235.7402285183301</v>
       </c>
       <c r="W28" t="n">
-        <v>230.6126668773319</v>
+        <v>230.6126668773318</v>
       </c>
       <c r="X28" t="n">
         <v>209.3122405835392</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>366.3364268579827</v>
+        <v>366.3364268579826</v>
       </c>
       <c r="C29" t="n">
-        <v>348.8754769655097</v>
+        <v>348.8754769655096</v>
       </c>
       <c r="D29" t="n">
-        <v>338.2856268151851</v>
+        <v>338.285626815185</v>
       </c>
       <c r="E29" t="n">
-        <v>52.10802165747748</v>
+        <v>52.10802165747725</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.6537156198166</v>
+        <v>397.6537156198165</v>
       </c>
       <c r="H29" t="n">
         <v>310.259366201644</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>353.3336858729712</v>
+        <v>353.3336858729711</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,25 +24843,25 @@
         <v>150.8494062931299</v>
       </c>
       <c r="D31" t="n">
-        <v>132.2180582127145</v>
+        <v>132.2180582127144</v>
       </c>
       <c r="E31" t="n">
-        <v>130.0365478410713</v>
+        <v>130.0365478410712</v>
       </c>
       <c r="F31" t="n">
         <v>129.0236332174333</v>
       </c>
       <c r="G31" t="n">
-        <v>151.0321367005803</v>
+        <v>151.0321367005802</v>
       </c>
       <c r="H31" t="n">
-        <v>140.8381537053215</v>
+        <v>140.8381537053214</v>
       </c>
       <c r="I31" t="n">
         <v>122.1693934338057</v>
       </c>
       <c r="J31" t="n">
-        <v>37.26881614786673</v>
+        <v>37.26881614786672</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>109.0576792424359</v>
+        <v>109.0576792424358</v>
       </c>
       <c r="U31" t="n">
         <v>269.8909912135904</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>377.7836497148848</v>
+        <v>377.7836497148847</v>
       </c>
       <c r="H32" t="n">
-        <v>290.3893002967122</v>
+        <v>290.3893002967121</v>
       </c>
       <c r="I32" t="n">
-        <v>125.9558265296673</v>
+        <v>125.9558265296672</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>34.98037337477629</v>
+        <v>34.98037337477624</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>214.9780436302212</v>
       </c>
       <c r="V32" t="n">
-        <v>291.4847777597053</v>
+        <v>291.4847777597052</v>
       </c>
       <c r="W32" t="n">
-        <v>8.453414160949364</v>
+        <v>8.453414160949137</v>
       </c>
       <c r="X32" t="n">
-        <v>333.4636199680394</v>
+        <v>333.4636199680393</v>
       </c>
       <c r="Y32" t="n">
         <v>349.9704579456239</v>
@@ -25077,28 +25077,28 @@
         <v>143.5644994715076</v>
       </c>
       <c r="C34" t="n">
-        <v>130.9793403881982</v>
+        <v>130.9793403881981</v>
       </c>
       <c r="D34" t="n">
-        <v>112.3479923077827</v>
+        <v>112.3479923077826</v>
       </c>
       <c r="E34" t="n">
         <v>110.1664819361395</v>
       </c>
       <c r="F34" t="n">
-        <v>109.1535673125016</v>
+        <v>109.1535673125015</v>
       </c>
       <c r="G34" t="n">
-        <v>131.1620707956485</v>
+        <v>131.1620707956484</v>
       </c>
       <c r="H34" t="n">
         <v>120.9680878003897</v>
       </c>
       <c r="I34" t="n">
-        <v>102.299327528874</v>
+        <v>102.2993275288739</v>
       </c>
       <c r="J34" t="n">
-        <v>17.39875024293497</v>
+        <v>17.39875024293492</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>169.5429457181877</v>
+        <v>169.542945718187</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.0209253086587</v>
+        <v>250.0209253086586</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>189.4421746786075</v>
+        <v>189.4421746786074</v>
       </c>
       <c r="Y34" t="n">
         <v>182.3171726416651</v>
@@ -25156,22 +25156,22 @@
         <v>346.4663609530509</v>
       </c>
       <c r="C35" t="n">
-        <v>329.0054110605779</v>
+        <v>329.0054110605778</v>
       </c>
       <c r="D35" t="n">
-        <v>318.4155609102533</v>
+        <v>318.4155609102532</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>38.28883465611648</v>
+        <v>38.28883465611631</v>
       </c>
       <c r="G35" t="n">
-        <v>377.7836497148848</v>
+        <v>377.7836497148847</v>
       </c>
       <c r="H35" t="n">
-        <v>290.3893002967122</v>
+        <v>290.3893002967121</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25314,28 +25314,28 @@
         <v>143.5644994715076</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9793403881982</v>
+        <v>130.9793403881981</v>
       </c>
       <c r="D37" t="n">
-        <v>112.3479923077827</v>
+        <v>112.3479923077826</v>
       </c>
       <c r="E37" t="n">
         <v>110.1664819361395</v>
       </c>
       <c r="F37" t="n">
-        <v>109.1535673125016</v>
+        <v>109.1535673125015</v>
       </c>
       <c r="G37" t="n">
-        <v>131.1620707956485</v>
+        <v>131.1620707956484</v>
       </c>
       <c r="H37" t="n">
         <v>120.9680878003897</v>
       </c>
       <c r="I37" t="n">
-        <v>102.299327528874</v>
+        <v>102.2993275288739</v>
       </c>
       <c r="J37" t="n">
-        <v>17.39875024293497</v>
+        <v>17.39875024293492</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>169.3083534006851</v>
+        <v>169.3083534006842</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>250.2555176261613</v>
       </c>
       <c r="X37" t="n">
-        <v>189.4421746786075</v>
+        <v>189.4421746786074</v>
       </c>
       <c r="Y37" t="n">
         <v>182.3171726416651</v>
@@ -25554,16 +25554,16 @@
         <v>130.9793403881981</v>
       </c>
       <c r="D40" t="n">
-        <v>112.3479923077827</v>
+        <v>112.3479923077826</v>
       </c>
       <c r="E40" t="n">
         <v>110.1664819361395</v>
       </c>
       <c r="F40" t="n">
-        <v>109.1535673125016</v>
+        <v>109.1535673125015</v>
       </c>
       <c r="G40" t="n">
-        <v>131.1620707956485</v>
+        <v>131.1620707956484</v>
       </c>
       <c r="H40" t="n">
         <v>120.9680878003897</v>
@@ -25572,7 +25572,7 @@
         <v>102.2993275288739</v>
       </c>
       <c r="J40" t="n">
-        <v>17.39875024293494</v>
+        <v>17.39875024293492</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>135.7553634289512</v>
+        <v>135.7553634289509</v>
       </c>
       <c r="V40" t="n">
         <v>215.8701626133983</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>248.0942557327621</v>
+        <v>248.0942557327616</v>
       </c>
       <c r="E41" t="n">
-        <v>362.06030416733</v>
+        <v>362.0603041673299</v>
       </c>
       <c r="F41" t="n">
-        <v>387.0059798367797</v>
+        <v>387.0059798367796</v>
       </c>
       <c r="G41" t="n">
-        <v>394.1810645203827</v>
+        <v>394.1810645203826</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>142.3532413351652</v>
+        <v>142.3532413351651</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>349.8610347735373</v>
+        <v>349.8610347735372</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D43" t="n">
-        <v>128.7454071132806</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E43" t="n">
         <v>126.5638967416374</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5509821179995</v>
+        <v>125.5509821179994</v>
       </c>
       <c r="G43" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H43" t="n">
         <v>137.3655026058876</v>
@@ -25809,7 +25809,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.79616504843287</v>
+        <v>33.79616504843283</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.28005054423834</v>
+        <v>19.28005054423828</v>
       </c>
       <c r="R43" t="n">
-        <v>132.1794876733793</v>
+        <v>132.1794876733792</v>
       </c>
       <c r="S43" t="n">
         <v>194.3623758319168</v>
       </c>
       <c r="T43" t="n">
-        <v>205.6766954268145</v>
+        <v>205.6766954268144</v>
       </c>
       <c r="U43" t="n">
         <v>266.4183401141565</v>
       </c>
       <c r="V43" t="n">
-        <v>232.2675774188963</v>
+        <v>232.2675774188962</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>65.08613125662362</v>
+        <v>65.08613125662356</v>
       </c>
       <c r="Y43" t="n">
         <v>198.714587447163</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>65.53949502796843</v>
+        <v>65.53949502796934</v>
       </c>
       <c r="D44" t="n">
         <v>334.8129757157512</v>
@@ -25885,7 +25885,7 @@
         <v>306.7867151022101</v>
       </c>
       <c r="I44" t="n">
-        <v>142.3532413351652</v>
+        <v>142.3532413351651</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.37778818027419</v>
+        <v>51.37778818027414</v>
       </c>
       <c r="S44" t="n">
         <v>160.6290071220265</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.733009290108</v>
+        <v>24.98760217682732</v>
       </c>
       <c r="C46" t="n">
-        <v>147.3767551936961</v>
+        <v>147.376755193696</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>128.7454071132805</v>
       </c>
       <c r="E46" t="n">
         <v>126.5638967416374</v>
@@ -26037,7 +26037,7 @@
         <v>125.5509821179995</v>
       </c>
       <c r="G46" t="n">
-        <v>147.5594856011464</v>
+        <v>147.5594856011463</v>
       </c>
       <c r="H46" t="n">
         <v>137.3655026058876</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.28005054423834</v>
+        <v>19.28005054423831</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>194.3623758319168</v>
       </c>
       <c r="T46" t="n">
-        <v>205.6766954268145</v>
+        <v>205.6766954268144</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>232.2675774188963</v>
+        <v>232.2675774188962</v>
       </c>
       <c r="W46" t="n">
         <v>266.6529324316592</v>
       </c>
       <c r="X46" t="n">
-        <v>205.8395894841054</v>
+        <v>205.8395894841053</v>
       </c>
       <c r="Y46" t="n">
         <v>198.714587447163</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>614258.5601800436</v>
+        <v>614258.5601800437</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>614258.5601800436</v>
+        <v>614258.5601800437</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>614258.5601800437</v>
+        <v>614258.5601800438</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>614258.5601800436</v>
+        <v>614258.5601800437</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613068.2138893215</v>
+        <v>613068.2138893217</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643396.998817415</v>
+        <v>643396.9988174152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641512.0631731874</v>
+        <v>641512.0631731875</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>614258.5601800436</v>
+        <v>614258.5601800437</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>614258.5601800437</v>
+        <v>614258.5601800436</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697315.354419251</v>
+        <v>697315.3544192511</v>
       </c>
       <c r="C2" t="n">
-        <v>697315.3544192512</v>
+        <v>697315.3544192511</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>497326.4503531933</v>
+        <v>497326.4503531932</v>
       </c>
       <c r="F2" t="n">
         <v>497326.4503531924</v>
       </c>
       <c r="G2" t="n">
+        <v>497326.4503531928</v>
+      </c>
+      <c r="H2" t="n">
+        <v>497326.4503531926</v>
+      </c>
+      <c r="I2" t="n">
         <v>497326.4503531927</v>
       </c>
-      <c r="H2" t="n">
-        <v>497326.4503531927</v>
-      </c>
-      <c r="I2" t="n">
-        <v>497326.4503531925</v>
-      </c>
       <c r="J2" t="n">
-        <v>495634.698919552</v>
+        <v>495634.6989195512</v>
       </c>
       <c r="K2" t="n">
-        <v>495634.6989195512</v>
+        <v>495634.6989195516</v>
       </c>
       <c r="L2" t="n">
-        <v>524612.5850352369</v>
+        <v>524612.5850352368</v>
       </c>
       <c r="M2" t="n">
-        <v>523065.8698467187</v>
+        <v>523065.8698467186</v>
       </c>
       <c r="N2" t="n">
-        <v>523065.8698467184</v>
+        <v>523065.8698467186</v>
       </c>
       <c r="O2" t="n">
-        <v>497326.4503531924</v>
+        <v>497326.4503531934</v>
       </c>
       <c r="P2" t="n">
-        <v>497326.4503531925</v>
+        <v>497326.4503531932</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>2617.583265578577</v>
       </c>
       <c r="E3" t="n">
-        <v>439750.6036656914</v>
+        <v>439750.6036656913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15896.05272394541</v>
+        <v>15896.05272394544</v>
       </c>
       <c r="M3" t="n">
-        <v>143529.4332124296</v>
+        <v>143529.4332124297</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398332.8331934586</v>
+        <v>398332.1902529763</v>
       </c>
       <c r="C4" t="n">
-        <v>398332.8331934585</v>
+        <v>398332.1902529763</v>
       </c>
       <c r="D4" t="n">
-        <v>397222.0676925005</v>
+        <v>397221.4104496618</v>
       </c>
       <c r="E4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094386</v>
       </c>
       <c r="F4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094386</v>
       </c>
       <c r="G4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094386</v>
       </c>
       <c r="H4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094386</v>
       </c>
       <c r="I4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094386</v>
       </c>
       <c r="J4" t="n">
-        <v>115442.1728519163</v>
+        <v>115441.1361309949</v>
       </c>
       <c r="K4" t="n">
-        <v>115442.1728519163</v>
+        <v>115441.1361309949</v>
       </c>
       <c r="L4" t="n">
-        <v>135336.9558626438</v>
+        <v>135335.9232952836</v>
       </c>
       <c r="M4" t="n">
-        <v>134577.6940896199</v>
+        <v>134576.6644257514</v>
       </c>
       <c r="N4" t="n">
-        <v>134577.69408962</v>
+        <v>134576.6644257515</v>
       </c>
       <c r="O4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094386</v>
       </c>
       <c r="P4" t="n">
-        <v>117263.5525733071</v>
+        <v>117262.5229094385</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>44764.01683498799</v>
       </c>
       <c r="F5" t="n">
+        <v>44764.01683498798</v>
+      </c>
+      <c r="G5" t="n">
         <v>44764.01683498799</v>
       </c>
-      <c r="G5" t="n">
-        <v>44764.01683498798</v>
-      </c>
       <c r="H5" t="n">
-        <v>44764.01683498798</v>
+        <v>44764.01683498799</v>
       </c>
       <c r="I5" t="n">
         <v>44764.01683498799</v>
@@ -26499,10 +26499,10 @@
         <v>45342.56385910807</v>
       </c>
       <c r="L5" t="n">
-        <v>46500.67756984562</v>
+        <v>46500.67756984563</v>
       </c>
       <c r="M5" t="n">
-        <v>46142.53110027138</v>
+        <v>46142.53110027139</v>
       </c>
       <c r="N5" t="n">
         <v>46142.53110027139</v>
@@ -26511,7 +26511,7 @@
         <v>44764.01683498798</v>
       </c>
       <c r="P5" t="n">
-        <v>44764.016834988</v>
+        <v>44764.01683498798</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262632.5365675968</v>
+        <v>262633.1795080792</v>
       </c>
       <c r="C6" t="n">
-        <v>264936.8576446967</v>
+        <v>264937.5005851787</v>
       </c>
       <c r="D6" t="n">
-        <v>263487.8469856415</v>
+        <v>263488.5042284803</v>
       </c>
       <c r="E6" t="n">
-        <v>-104451.7227207932</v>
+        <v>-104450.6930569246</v>
       </c>
       <c r="F6" t="n">
-        <v>335298.8809448973</v>
+        <v>335299.9106087658</v>
       </c>
       <c r="G6" t="n">
-        <v>335298.8809448976</v>
+        <v>335299.9106087663</v>
       </c>
       <c r="H6" t="n">
-        <v>335298.8809448977</v>
+        <v>335299.910608766</v>
       </c>
       <c r="I6" t="n">
-        <v>335298.8809448975</v>
+        <v>335299.9106087661</v>
       </c>
       <c r="J6" t="n">
-        <v>316186.9294148957</v>
+        <v>316187.9661358162</v>
       </c>
       <c r="K6" t="n">
-        <v>334849.9622085268</v>
+        <v>334850.9989294487</v>
       </c>
       <c r="L6" t="n">
-        <v>326878.8988788021</v>
+        <v>326879.9314461622</v>
       </c>
       <c r="M6" t="n">
-        <v>198816.2114443978</v>
+        <v>198817.2411082661</v>
       </c>
       <c r="N6" t="n">
-        <v>342345.644656827</v>
+        <v>342346.6743206957</v>
       </c>
       <c r="O6" t="n">
-        <v>335298.8809448974</v>
+        <v>335299.9106087668</v>
       </c>
       <c r="P6" t="n">
-        <v>335298.8809448973</v>
+        <v>335299.9106087667</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F2" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G2" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H2" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I2" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J2" t="n">
         <v>16.3974148054979</v>
       </c>
       <c r="K2" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="L2" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="M2" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="N2" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="O2" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P2" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
     </row>
     <row r="3">
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311.3372635928762</v>
+        <v>311.3372635928761</v>
       </c>
       <c r="F3" t="n">
-        <v>311.3372635928762</v>
+        <v>311.3372635928761</v>
       </c>
       <c r="G3" t="n">
         <v>311.3372635928761</v>
@@ -26758,7 +26758,7 @@
         <v>311.3372635928761</v>
       </c>
       <c r="I3" t="n">
-        <v>311.3372635928762</v>
+        <v>311.3372635928761</v>
       </c>
       <c r="J3" t="n">
         <v>311.3372635928761</v>
@@ -26801,16 +26801,16 @@
         <v>597.1448670740391</v>
       </c>
       <c r="F4" t="n">
+        <v>597.144867074039</v>
+      </c>
+      <c r="G4" t="n">
         <v>597.1448670740391</v>
       </c>
-      <c r="G4" t="n">
-        <v>597.144867074039</v>
-      </c>
       <c r="H4" t="n">
-        <v>597.144867074039</v>
+        <v>597.1448670740391</v>
       </c>
       <c r="I4" t="n">
-        <v>597.1448670740392</v>
+        <v>597.1448670740391</v>
       </c>
       <c r="J4" t="n">
         <v>611.4621257812495</v>
@@ -26828,10 +26828,10 @@
         <v>597.144867074039</v>
       </c>
       <c r="O4" t="n">
-        <v>597.1448670740391</v>
+        <v>597.144867074039</v>
       </c>
       <c r="P4" t="n">
-        <v>597.1448670740393</v>
+        <v>597.144867074039</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.39741480549793</v>
+        <v>16.3974148054979</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311.3372635928762</v>
+        <v>311.3372635928761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.19330444892171</v>
+        <v>21.19330444892182</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.9515626251169</v>
+        <v>575.9515626251172</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.39741480549793</v>
+        <v>16.3974148054979</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="L13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="M13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="N13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="O13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="R13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="L16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="M16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="N16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="O16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="R16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>19.87006590493248</v>
+        <v>19.87006590493203</v>
       </c>
       <c r="S18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="L19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="M19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="N19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="O19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="R19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T21" t="n">
-        <v>19.87006590493274</v>
+        <v>19.87006590493161</v>
       </c>
       <c r="U21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="L22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="M22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="N22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="O22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="R22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.87006590493178</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="24">
@@ -29116,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493149</v>
       </c>
       <c r="V24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="L25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="M25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="N25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="O25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="R25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.87006590493175</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="26">
@@ -29316,7 +29316,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.498315313066877</v>
+        <v>7.498315313066882</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29511,46 +29511,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="C29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="D29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="E29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="F29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="G29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="H29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="I29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="J29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="O29" t="n">
-        <v>7.498315313066712</v>
+        <v>7.498315313066889</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="S29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="T29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="U29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="V29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="W29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="X29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="C30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="D30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="E30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="F30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="G30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="H30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="I30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="S30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="T30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="U30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="V30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="W30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="X30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="C31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="D31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="E31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="F31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="G31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="H31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="I31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="J31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="K31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="L31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="N31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="O31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="P31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="R31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="S31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="T31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="U31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="V31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="W31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="X31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.3974148054979</v>
+        <v>16.39741480549792</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="S32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="U32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="W32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="X32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
     </row>
     <row r="33">
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.9210966388315</v>
+        <v>4.921096638831273</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="K34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="L34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="M34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="N34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="O34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="P34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="R34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="S34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="U34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="W34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="X34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30033,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="S35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="U35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="W35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="X35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I36" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30124,7 +30124,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>27.78120879547171</v>
+        <v>27.78120879547126</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="K37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="L37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="M37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="N37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="O37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="P37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="R37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="S37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="U37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="W37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="X37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.26748071042966</v>
+        <v>36.26748071042972</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30270,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="S38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="U38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="W38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="X38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
     </row>
     <row r="39">
@@ -30304,22 +30304,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30352,13 +30352,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>27.78120879547194</v>
+        <v>27.78120879547171</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30367,7 +30367,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="D40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="E40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="F40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="G40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="H40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="I40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="J40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="K40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="L40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="M40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="N40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="O40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="P40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="R40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="S40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="T40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="U40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="V40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="W40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="X40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.26748071042969</v>
+        <v>36.26748071042972</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="C43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="D43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="E43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="F43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="G43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="H43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="I43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="J43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="K43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="L43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="M43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="N43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="O43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="P43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="R43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="S43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="T43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="U43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="V43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="W43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="X43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.87006590493176</v>
+        <v>19.87006590493181</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="C44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="D44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="E44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="F44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="G44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="H44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="I44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="S44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="T44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="U44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="V44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="W44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="X44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="C45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="D45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="E45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="F45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="G45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="H45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="I45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="S45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="T45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="U45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="V45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="W45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="X45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="C46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="D46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="E46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="F46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="G46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="H46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="I46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="J46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="K46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="L46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="M46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="N46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="O46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="P46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="R46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="S46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="T46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="U46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="V46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="W46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="X46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.87006590493176</v>
+        <v>19.8700659049318</v>
       </c>
     </row>
   </sheetData>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.251607089820607</v>
+        <v>1.251607089820606</v>
       </c>
       <c r="H11" t="n">
         <v>12.81802110862529</v>
       </c>
       <c r="I11" t="n">
-        <v>48.25258233030899</v>
+        <v>48.25258233030898</v>
       </c>
       <c r="J11" t="n">
         <v>106.2285872396618</v>
@@ -31767,31 +31767,31 @@
         <v>159.2091153517681</v>
       </c>
       <c r="L11" t="n">
-        <v>197.5129858268656</v>
+        <v>197.5129858268655</v>
       </c>
       <c r="M11" t="n">
-        <v>219.7712534104628</v>
+        <v>219.7712534104627</v>
       </c>
       <c r="N11" t="n">
-        <v>223.3273820544156</v>
+        <v>223.3273820544155</v>
       </c>
       <c r="O11" t="n">
         <v>210.8817140550119</v>
       </c>
       <c r="P11" t="n">
-        <v>179.9826640250657</v>
+        <v>179.9826640250656</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.1594851208652</v>
+        <v>135.1594851208651</v>
       </c>
       <c r="R11" t="n">
-        <v>78.62126385594377</v>
+        <v>78.62126385594374</v>
       </c>
       <c r="S11" t="n">
-        <v>28.52099655928711</v>
+        <v>28.5209965592871</v>
       </c>
       <c r="T11" t="n">
-        <v>5.478910035689709</v>
+        <v>5.478910035689707</v>
       </c>
       <c r="U11" t="n">
         <v>0.1001285671856485</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6696688311242998</v>
+        <v>0.6696688311242995</v>
       </c>
       <c r="H12" t="n">
-        <v>6.46759107954258</v>
+        <v>6.467591079542578</v>
       </c>
       <c r="I12" t="n">
-        <v>23.0565803698498</v>
+        <v>23.05658036984979</v>
       </c>
       <c r="J12" t="n">
-        <v>63.26901882126554</v>
+        <v>63.26901882126552</v>
       </c>
       <c r="K12" t="n">
         <v>108.1368305065936</v>
       </c>
       <c r="L12" t="n">
-        <v>145.4033135298617</v>
+        <v>145.4033135298616</v>
       </c>
       <c r="M12" t="n">
-        <v>169.6788086581175</v>
+        <v>169.6788086581174</v>
       </c>
       <c r="N12" t="n">
-        <v>174.169701828245</v>
+        <v>174.1697018282449</v>
       </c>
       <c r="O12" t="n">
         <v>159.3312503596486</v>
       </c>
       <c r="P12" t="n">
-        <v>127.8773753047797</v>
+        <v>127.8773753047796</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.48263886421763</v>
+        <v>85.48263886421761</v>
       </c>
       <c r="R12" t="n">
-        <v>41.57821040962978</v>
+        <v>41.57821040962977</v>
       </c>
       <c r="S12" t="n">
         <v>12.43880482373424</v>
@@ -31873,7 +31873,7 @@
         <v>2.699235332470312</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04405715994238816</v>
+        <v>0.04405715994238815</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5614278523805963</v>
+        <v>0.5614278523805961</v>
       </c>
       <c r="H13" t="n">
-        <v>4.991603996620214</v>
+        <v>4.991603996620213</v>
       </c>
       <c r="I13" t="n">
-        <v>16.88366668795467</v>
+        <v>16.88366668795466</v>
       </c>
       <c r="J13" t="n">
-        <v>39.69294916330816</v>
+        <v>39.69294916330814</v>
       </c>
       <c r="K13" t="n">
-        <v>65.22770866749109</v>
+        <v>65.22770866749106</v>
       </c>
       <c r="L13" t="n">
-        <v>83.46900998029341</v>
+        <v>83.46900998029336</v>
       </c>
       <c r="M13" t="n">
-        <v>88.00636780544201</v>
+        <v>88.00636780544198</v>
       </c>
       <c r="N13" t="n">
-        <v>85.91377308293259</v>
+        <v>85.91377308293255</v>
       </c>
       <c r="O13" t="n">
-        <v>79.35527498921377</v>
+        <v>79.35527498921374</v>
       </c>
       <c r="P13" t="n">
-        <v>67.90214680064955</v>
+        <v>67.90214680064953</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.0119268025243</v>
+        <v>47.01192680252429</v>
       </c>
       <c r="R13" t="n">
-        <v>25.24383779885844</v>
+        <v>25.24383779885843</v>
       </c>
       <c r="S13" t="n">
-        <v>9.784156300123662</v>
+        <v>9.784156300123659</v>
       </c>
       <c r="T13" t="n">
-        <v>2.398828096535275</v>
+        <v>2.398828096535274</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03062333740257802</v>
+        <v>0.03062333740257801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.251607089820607</v>
+        <v>1.251607089820606</v>
       </c>
       <c r="H14" t="n">
         <v>12.81802110862529</v>
       </c>
       <c r="I14" t="n">
-        <v>48.25258233030899</v>
+        <v>48.25258233030898</v>
       </c>
       <c r="J14" t="n">
         <v>106.2285872396618</v>
@@ -32004,31 +32004,31 @@
         <v>159.2091153517681</v>
       </c>
       <c r="L14" t="n">
-        <v>197.5129858268656</v>
+        <v>197.5129858268655</v>
       </c>
       <c r="M14" t="n">
-        <v>219.7712534104628</v>
+        <v>219.7712534104627</v>
       </c>
       <c r="N14" t="n">
-        <v>223.3273820544156</v>
+        <v>223.3273820544155</v>
       </c>
       <c r="O14" t="n">
         <v>210.8817140550119</v>
       </c>
       <c r="P14" t="n">
-        <v>179.9826640250657</v>
+        <v>179.9826640250656</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.1594851208652</v>
+        <v>135.1594851208651</v>
       </c>
       <c r="R14" t="n">
-        <v>78.62126385594377</v>
+        <v>78.62126385594374</v>
       </c>
       <c r="S14" t="n">
-        <v>28.52099655928711</v>
+        <v>28.5209965592871</v>
       </c>
       <c r="T14" t="n">
-        <v>5.478910035689709</v>
+        <v>5.478910035689707</v>
       </c>
       <c r="U14" t="n">
         <v>0.1001285671856485</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6696688311242998</v>
+        <v>0.6696688311242995</v>
       </c>
       <c r="H15" t="n">
-        <v>6.46759107954258</v>
+        <v>6.467591079542578</v>
       </c>
       <c r="I15" t="n">
-        <v>23.0565803698498</v>
+        <v>23.05658036984979</v>
       </c>
       <c r="J15" t="n">
-        <v>63.26901882126554</v>
+        <v>63.26901882126552</v>
       </c>
       <c r="K15" t="n">
         <v>108.1368305065936</v>
       </c>
       <c r="L15" t="n">
-        <v>145.4033135298617</v>
+        <v>145.4033135298616</v>
       </c>
       <c r="M15" t="n">
-        <v>169.6788086581175</v>
+        <v>169.6788086581174</v>
       </c>
       <c r="N15" t="n">
-        <v>174.169701828245</v>
+        <v>174.1697018282449</v>
       </c>
       <c r="O15" t="n">
         <v>159.3312503596486</v>
       </c>
       <c r="P15" t="n">
-        <v>127.8773753047797</v>
+        <v>127.8773753047796</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.48263886421763</v>
+        <v>85.48263886421761</v>
       </c>
       <c r="R15" t="n">
-        <v>41.57821040962978</v>
+        <v>41.57821040962977</v>
       </c>
       <c r="S15" t="n">
         <v>12.43880482373424</v>
@@ -32110,7 +32110,7 @@
         <v>2.699235332470312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04405715994238816</v>
+        <v>0.04405715994238815</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5614278523805963</v>
+        <v>0.5614278523805961</v>
       </c>
       <c r="H16" t="n">
-        <v>4.991603996620214</v>
+        <v>4.991603996620213</v>
       </c>
       <c r="I16" t="n">
-        <v>16.88366668795467</v>
+        <v>16.88366668795466</v>
       </c>
       <c r="J16" t="n">
-        <v>39.69294916330816</v>
+        <v>39.69294916330814</v>
       </c>
       <c r="K16" t="n">
-        <v>65.22770866749109</v>
+        <v>65.22770866749106</v>
       </c>
       <c r="L16" t="n">
-        <v>83.46900998029341</v>
+        <v>83.46900998029336</v>
       </c>
       <c r="M16" t="n">
-        <v>88.00636780544201</v>
+        <v>88.00636780544198</v>
       </c>
       <c r="N16" t="n">
-        <v>85.91377308293259</v>
+        <v>85.91377308293255</v>
       </c>
       <c r="O16" t="n">
-        <v>79.35527498921377</v>
+        <v>79.35527498921374</v>
       </c>
       <c r="P16" t="n">
-        <v>67.90214680064955</v>
+        <v>67.90214680064953</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.0119268025243</v>
+        <v>47.01192680252429</v>
       </c>
       <c r="R16" t="n">
-        <v>25.24383779885844</v>
+        <v>25.24383779885843</v>
       </c>
       <c r="S16" t="n">
-        <v>9.784156300123662</v>
+        <v>9.784156300123659</v>
       </c>
       <c r="T16" t="n">
-        <v>2.398828096535275</v>
+        <v>2.398828096535274</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03062333740257802</v>
+        <v>0.03062333740257801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.251607089820607</v>
+        <v>1.251607089820606</v>
       </c>
       <c r="H17" t="n">
         <v>12.81802110862529</v>
@@ -32247,7 +32247,7 @@
         <v>219.7712534104627</v>
       </c>
       <c r="N17" t="n">
-        <v>223.3273820544156</v>
+        <v>223.3273820544155</v>
       </c>
       <c r="O17" t="n">
         <v>210.8817140550119</v>
@@ -32259,13 +32259,13 @@
         <v>135.1594851208651</v>
       </c>
       <c r="R17" t="n">
-        <v>78.62126385594375</v>
+        <v>78.62126385594374</v>
       </c>
       <c r="S17" t="n">
         <v>28.5209965592871</v>
       </c>
       <c r="T17" t="n">
-        <v>5.478910035689708</v>
+        <v>5.478910035689707</v>
       </c>
       <c r="U17" t="n">
         <v>0.1001285671856485</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6696688311242996</v>
+        <v>0.6696688311242995</v>
       </c>
       <c r="H18" t="n">
-        <v>6.467591079542579</v>
+        <v>6.467591079542578</v>
       </c>
       <c r="I18" t="n">
         <v>23.05658036984979</v>
       </c>
       <c r="J18" t="n">
-        <v>63.26901882126553</v>
+        <v>63.26901882126552</v>
       </c>
       <c r="K18" t="n">
         <v>108.1368305065936</v>
@@ -32323,7 +32323,7 @@
         <v>145.4033135298616</v>
       </c>
       <c r="M18" t="n">
-        <v>169.6788086581175</v>
+        <v>169.6788086581174</v>
       </c>
       <c r="N18" t="n">
         <v>174.1697018282449</v>
@@ -32335,10 +32335,10 @@
         <v>127.8773753047796</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.48263886421762</v>
+        <v>85.48263886421761</v>
       </c>
       <c r="R18" t="n">
-        <v>41.57821040962978</v>
+        <v>41.57821040962977</v>
       </c>
       <c r="S18" t="n">
         <v>12.43880482373424</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5614278523805962</v>
+        <v>0.5614278523805961</v>
       </c>
       <c r="H19" t="n">
         <v>4.991603996620213</v>
@@ -32393,22 +32393,22 @@
         <v>16.88366668795466</v>
       </c>
       <c r="J19" t="n">
-        <v>39.69294916330815</v>
+        <v>39.69294916330814</v>
       </c>
       <c r="K19" t="n">
-        <v>65.22770866749107</v>
+        <v>65.22770866749106</v>
       </c>
       <c r="L19" t="n">
-        <v>83.46900998029338</v>
+        <v>83.46900998029336</v>
       </c>
       <c r="M19" t="n">
-        <v>88.006367805442</v>
+        <v>88.00636780544198</v>
       </c>
       <c r="N19" t="n">
-        <v>85.91377308293258</v>
+        <v>85.91377308293255</v>
       </c>
       <c r="O19" t="n">
-        <v>79.35527498921375</v>
+        <v>79.35527498921374</v>
       </c>
       <c r="P19" t="n">
         <v>67.90214680064953</v>
@@ -32417,10 +32417,10 @@
         <v>47.01192680252429</v>
       </c>
       <c r="R19" t="n">
-        <v>25.24383779885844</v>
+        <v>25.24383779885843</v>
       </c>
       <c r="S19" t="n">
-        <v>9.78415630012366</v>
+        <v>9.784156300123659</v>
       </c>
       <c r="T19" t="n">
         <v>2.398828096535274</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.251607089820607</v>
+        <v>1.251607089820606</v>
       </c>
       <c r="H20" t="n">
         <v>12.81802110862529</v>
@@ -32484,7 +32484,7 @@
         <v>219.7712534104627</v>
       </c>
       <c r="N20" t="n">
-        <v>223.3273820544156</v>
+        <v>223.3273820544155</v>
       </c>
       <c r="O20" t="n">
         <v>210.8817140550119</v>
@@ -32496,13 +32496,13 @@
         <v>135.1594851208651</v>
       </c>
       <c r="R20" t="n">
-        <v>78.62126385594375</v>
+        <v>78.62126385594374</v>
       </c>
       <c r="S20" t="n">
         <v>28.5209965592871</v>
       </c>
       <c r="T20" t="n">
-        <v>5.478910035689708</v>
+        <v>5.478910035689707</v>
       </c>
       <c r="U20" t="n">
         <v>0.1001285671856485</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6696688311242996</v>
+        <v>0.6696688311242995</v>
       </c>
       <c r="H21" t="n">
-        <v>6.467591079542579</v>
+        <v>6.467591079542578</v>
       </c>
       <c r="I21" t="n">
         <v>23.05658036984979</v>
       </c>
       <c r="J21" t="n">
-        <v>63.26901882126553</v>
+        <v>63.26901882126552</v>
       </c>
       <c r="K21" t="n">
         <v>108.1368305065936</v>
@@ -32560,7 +32560,7 @@
         <v>145.4033135298616</v>
       </c>
       <c r="M21" t="n">
-        <v>169.6788086581175</v>
+        <v>169.6788086581174</v>
       </c>
       <c r="N21" t="n">
         <v>174.1697018282449</v>
@@ -32572,10 +32572,10 @@
         <v>127.8773753047796</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.48263886421762</v>
+        <v>85.48263886421761</v>
       </c>
       <c r="R21" t="n">
-        <v>41.57821040962978</v>
+        <v>41.57821040962977</v>
       </c>
       <c r="S21" t="n">
         <v>12.43880482373424</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5614278523805962</v>
+        <v>0.5614278523805961</v>
       </c>
       <c r="H22" t="n">
         <v>4.991603996620213</v>
@@ -32630,22 +32630,22 @@
         <v>16.88366668795466</v>
       </c>
       <c r="J22" t="n">
-        <v>39.69294916330815</v>
+        <v>39.69294916330814</v>
       </c>
       <c r="K22" t="n">
-        <v>65.22770866749107</v>
+        <v>65.22770866749106</v>
       </c>
       <c r="L22" t="n">
-        <v>83.46900998029338</v>
+        <v>83.46900998029336</v>
       </c>
       <c r="M22" t="n">
-        <v>88.006367805442</v>
+        <v>88.00636780544198</v>
       </c>
       <c r="N22" t="n">
-        <v>85.91377308293258</v>
+        <v>85.91377308293255</v>
       </c>
       <c r="O22" t="n">
-        <v>79.35527498921375</v>
+        <v>79.35527498921374</v>
       </c>
       <c r="P22" t="n">
         <v>67.90214680064953</v>
@@ -32654,10 +32654,10 @@
         <v>47.01192680252429</v>
       </c>
       <c r="R22" t="n">
-        <v>25.24383779885844</v>
+        <v>25.24383779885843</v>
       </c>
       <c r="S22" t="n">
-        <v>9.78415630012366</v>
+        <v>9.784156300123659</v>
       </c>
       <c r="T22" t="n">
         <v>2.398828096535274</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.251607089820607</v>
+        <v>1.251607089820606</v>
       </c>
       <c r="H23" t="n">
         <v>12.81802110862529</v>
       </c>
       <c r="I23" t="n">
-        <v>48.25258233030899</v>
+        <v>48.25258233030898</v>
       </c>
       <c r="J23" t="n">
         <v>106.2285872396618</v>
@@ -32715,31 +32715,31 @@
         <v>159.2091153517681</v>
       </c>
       <c r="L23" t="n">
-        <v>197.5129858268656</v>
+        <v>197.5129858268655</v>
       </c>
       <c r="M23" t="n">
-        <v>219.7712534104628</v>
+        <v>219.7712534104627</v>
       </c>
       <c r="N23" t="n">
-        <v>223.3273820544156</v>
+        <v>223.3273820544155</v>
       </c>
       <c r="O23" t="n">
         <v>210.8817140550119</v>
       </c>
       <c r="P23" t="n">
-        <v>179.9826640250657</v>
+        <v>179.9826640250656</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.1594851208652</v>
+        <v>135.1594851208651</v>
       </c>
       <c r="R23" t="n">
-        <v>78.62126385594377</v>
+        <v>78.62126385594374</v>
       </c>
       <c r="S23" t="n">
-        <v>28.52099655928711</v>
+        <v>28.5209965592871</v>
       </c>
       <c r="T23" t="n">
-        <v>5.478910035689709</v>
+        <v>5.478910035689707</v>
       </c>
       <c r="U23" t="n">
         <v>0.1001285671856485</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6696688311242998</v>
+        <v>0.6696688311242995</v>
       </c>
       <c r="H24" t="n">
-        <v>6.46759107954258</v>
+        <v>6.467591079542578</v>
       </c>
       <c r="I24" t="n">
-        <v>23.0565803698498</v>
+        <v>23.05658036984979</v>
       </c>
       <c r="J24" t="n">
-        <v>63.26901882126554</v>
+        <v>63.26901882126552</v>
       </c>
       <c r="K24" t="n">
         <v>108.1368305065936</v>
       </c>
       <c r="L24" t="n">
-        <v>145.4033135298617</v>
+        <v>145.4033135298616</v>
       </c>
       <c r="M24" t="n">
-        <v>169.6788086581175</v>
+        <v>169.6788086581174</v>
       </c>
       <c r="N24" t="n">
-        <v>174.169701828245</v>
+        <v>174.1697018282449</v>
       </c>
       <c r="O24" t="n">
         <v>159.3312503596486</v>
       </c>
       <c r="P24" t="n">
-        <v>127.8773753047797</v>
+        <v>127.8773753047796</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.48263886421763</v>
+        <v>85.48263886421761</v>
       </c>
       <c r="R24" t="n">
-        <v>41.57821040962978</v>
+        <v>41.57821040962977</v>
       </c>
       <c r="S24" t="n">
         <v>12.43880482373424</v>
@@ -32821,7 +32821,7 @@
         <v>2.699235332470312</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04405715994238816</v>
+        <v>0.04405715994238815</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5614278523805963</v>
+        <v>0.5614278523805961</v>
       </c>
       <c r="H25" t="n">
-        <v>4.991603996620214</v>
+        <v>4.991603996620213</v>
       </c>
       <c r="I25" t="n">
-        <v>16.88366668795467</v>
+        <v>16.88366668795466</v>
       </c>
       <c r="J25" t="n">
-        <v>39.69294916330816</v>
+        <v>39.69294916330814</v>
       </c>
       <c r="K25" t="n">
-        <v>65.22770866749109</v>
+        <v>65.22770866749106</v>
       </c>
       <c r="L25" t="n">
-        <v>83.46900998029341</v>
+        <v>83.46900998029336</v>
       </c>
       <c r="M25" t="n">
-        <v>88.00636780544201</v>
+        <v>88.00636780544198</v>
       </c>
       <c r="N25" t="n">
-        <v>85.91377308293259</v>
+        <v>85.91377308293255</v>
       </c>
       <c r="O25" t="n">
-        <v>79.35527498921377</v>
+        <v>79.35527498921374</v>
       </c>
       <c r="P25" t="n">
-        <v>67.90214680064955</v>
+        <v>67.90214680064953</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.0119268025243</v>
+        <v>47.01192680252429</v>
       </c>
       <c r="R25" t="n">
-        <v>25.24383779885844</v>
+        <v>25.24383779885843</v>
       </c>
       <c r="S25" t="n">
-        <v>9.784156300123662</v>
+        <v>9.784156300123659</v>
       </c>
       <c r="T25" t="n">
-        <v>2.398828096535275</v>
+        <v>2.398828096535274</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03062333740257802</v>
+        <v>0.03062333740257801</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>94.2792978850493</v>
+        <v>94.27929788504927</v>
       </c>
       <c r="K11" t="n">
         <v>263.2646768779523</v>
       </c>
       <c r="L11" t="n">
-        <v>379.4077854073288</v>
+        <v>379.4077854073287</v>
       </c>
       <c r="M11" t="n">
         <v>438.9385536760225</v>
@@ -35424,13 +35424,13 @@
         <v>431.2612428698088</v>
       </c>
       <c r="O11" t="n">
-        <v>361.5836838960706</v>
+        <v>361.5836838960705</v>
       </c>
       <c r="P11" t="n">
-        <v>270.5483764412788</v>
+        <v>270.5483764412787</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.1687859063204</v>
+        <v>125.1687859063203</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.52242749500766</v>
       </c>
       <c r="K12" t="n">
         <v>234.7606285448132</v>
@@ -35500,13 +35500,13 @@
         <v>493.2498384860991</v>
       </c>
       <c r="N12" t="n">
-        <v>522.1703640884652</v>
+        <v>522.1703640884651</v>
       </c>
       <c r="O12" t="n">
         <v>410.5973251919337</v>
       </c>
       <c r="P12" t="n">
-        <v>170.4068150810287</v>
+        <v>107.8843875860214</v>
       </c>
       <c r="Q12" t="n">
         <v>155.5781525140452</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>62.82828274654002</v>
+        <v>62.82828274654001</v>
       </c>
       <c r="L13" t="n">
         <v>130.9291011455413</v>
@@ -35585,7 +35585,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P13" t="n">
-        <v>85.05077197047481</v>
+        <v>85.05077197047483</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>94.2792978850493</v>
+        <v>94.27929788504927</v>
       </c>
       <c r="K14" t="n">
         <v>263.2646768779523</v>
       </c>
       <c r="L14" t="n">
-        <v>379.4077854073288</v>
+        <v>379.4077854073287</v>
       </c>
       <c r="M14" t="n">
         <v>438.9385536760225</v>
@@ -35661,13 +35661,13 @@
         <v>431.2612428698088</v>
       </c>
       <c r="O14" t="n">
-        <v>361.5836838960706</v>
+        <v>361.5836838960705</v>
       </c>
       <c r="P14" t="n">
-        <v>270.5483764412788</v>
+        <v>270.5483764412787</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.1687859063204</v>
+        <v>125.1687859063203</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.52242749500768</v>
+        <v>62.52242749500766</v>
       </c>
       <c r="K15" t="n">
         <v>234.7606285448132</v>
       </c>
       <c r="L15" t="n">
-        <v>173.2079301090812</v>
+        <v>173.2079301090808</v>
       </c>
       <c r="M15" t="n">
         <v>493.2498384860991</v>
       </c>
       <c r="N15" t="n">
-        <v>522.1703640884652</v>
+        <v>522.1703640884651</v>
       </c>
       <c r="O15" t="n">
         <v>410.5973251919337</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3657365303866</v>
+        <v>312.3657365303865</v>
       </c>
       <c r="Q15" t="n">
         <v>155.5781525140452</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>62.82828274654002</v>
+        <v>62.82828274654001</v>
       </c>
       <c r="L16" t="n">
         <v>130.9291011455413</v>
@@ -35822,7 +35822,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P16" t="n">
-        <v>85.05077197047481</v>
+        <v>85.05077197047483</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>94.27929788504929</v>
+        <v>94.27929788504927</v>
       </c>
       <c r="K17" t="n">
         <v>263.2646768779523</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.52242749500767</v>
+        <v>62.52242749500766</v>
       </c>
       <c r="K18" t="n">
         <v>234.7606285448132</v>
@@ -35977,10 +35977,10 @@
         <v>522.1703640884651</v>
       </c>
       <c r="O18" t="n">
-        <v>361.6941287616128</v>
+        <v>361.6941287616137</v>
       </c>
       <c r="P18" t="n">
-        <v>312.3657365303866</v>
+        <v>312.3657365303865</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.82828274654</v>
+        <v>62.82828274654001</v>
       </c>
       <c r="L19" t="n">
         <v>130.9291011455413</v>
@@ -36059,7 +36059,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P19" t="n">
-        <v>85.05077197047481</v>
+        <v>85.05077197047483</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>94.27929788504929</v>
+        <v>94.27929788504927</v>
       </c>
       <c r="K20" t="n">
         <v>263.2646768779523</v>
@@ -36141,7 +36141,7 @@
         <v>270.5483764412787</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.1687859063203</v>
+        <v>125.1687859063209</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.52242749500767</v>
+        <v>62.52242749500766</v>
       </c>
       <c r="K21" t="n">
-        <v>30.2792796004474</v>
+        <v>30.27927960044786</v>
       </c>
       <c r="L21" t="n">
         <v>377.6892790534466</v>
@@ -36217,7 +36217,7 @@
         <v>410.5973251919337</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3657365303866</v>
+        <v>312.3657365303865</v>
       </c>
       <c r="Q21" t="n">
         <v>155.5781525140452</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.82828274654</v>
+        <v>62.82828274654001</v>
       </c>
       <c r="L22" t="n">
         <v>130.9291011455413</v>
@@ -36296,7 +36296,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P22" t="n">
-        <v>85.05077197047481</v>
+        <v>85.05077197047483</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>94.2792978850493</v>
+        <v>94.27929788504927</v>
       </c>
       <c r="K23" t="n">
         <v>263.2646768779523</v>
       </c>
       <c r="L23" t="n">
-        <v>379.4077854073288</v>
+        <v>379.4077854073287</v>
       </c>
       <c r="M23" t="n">
         <v>438.9385536760225</v>
       </c>
       <c r="N23" t="n">
-        <v>431.2612428698088</v>
+        <v>431.2612428698093</v>
       </c>
       <c r="O23" t="n">
-        <v>361.5836838960706</v>
+        <v>361.5836838960705</v>
       </c>
       <c r="P23" t="n">
-        <v>270.5483764412788</v>
+        <v>270.5483764412787</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.1687859063204</v>
+        <v>125.1687859063203</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.52242749500768</v>
+        <v>62.52242749500766</v>
       </c>
       <c r="K24" t="n">
         <v>234.7606285448132</v>
@@ -36445,16 +36445,16 @@
         <v>377.6892790534466</v>
       </c>
       <c r="M24" t="n">
-        <v>288.768489541734</v>
+        <v>288.7684895417337</v>
       </c>
       <c r="N24" t="n">
-        <v>522.1703640884652</v>
+        <v>522.1703640884651</v>
       </c>
       <c r="O24" t="n">
         <v>410.5973251919337</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3657365303866</v>
+        <v>312.3657365303865</v>
       </c>
       <c r="Q24" t="n">
         <v>155.5781525140452</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.82828274653998</v>
+        <v>62.82828274654001</v>
       </c>
       <c r="L25" t="n">
         <v>130.9291011455413</v>
       </c>
       <c r="M25" t="n">
-        <v>147.4603106722143</v>
+        <v>147.4603106722144</v>
       </c>
       <c r="N25" t="n">
         <v>149.9160113670929</v>
@@ -36533,7 +36533,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P25" t="n">
-        <v>85.05077197047478</v>
+        <v>85.05077197047483</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>455.3359684815204</v>
       </c>
       <c r="N26" t="n">
-        <v>447.6586576753066</v>
+        <v>447.6586576753067</v>
       </c>
       <c r="O26" t="n">
         <v>361.5836838960705</v>
@@ -36846,7 +36846,7 @@
         <v>447.6586576753067</v>
       </c>
       <c r="O29" t="n">
-        <v>369.0819992091372</v>
+        <v>369.0819992091374</v>
       </c>
       <c r="P29" t="n">
         <v>270.5483764412787</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>59.35563164710611</v>
+        <v>59.35563164710612</v>
       </c>
       <c r="L31" t="n">
         <v>127.4564500461074</v>
@@ -37007,7 +37007,7 @@
         <v>120.3378177087513</v>
       </c>
       <c r="P31" t="n">
-        <v>81.57812087104092</v>
+        <v>81.57812087104094</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>79.22569755203787</v>
+        <v>79.22569755203793</v>
       </c>
       <c r="L34" t="n">
         <v>147.3265159510392</v>
       </c>
       <c r="M34" t="n">
-        <v>163.8577254777122</v>
+        <v>163.8577254777123</v>
       </c>
       <c r="N34" t="n">
-        <v>166.3134261725908</v>
+        <v>166.3134261725909</v>
       </c>
       <c r="O34" t="n">
         <v>140.2078836136831</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>79.22569755203787</v>
+        <v>79.22569755203793</v>
       </c>
       <c r="L37" t="n">
         <v>147.3265159510392</v>
       </c>
       <c r="M37" t="n">
-        <v>163.8577254777122</v>
+        <v>163.8577254777123</v>
       </c>
       <c r="N37" t="n">
-        <v>166.3134261725908</v>
+        <v>166.3134261725909</v>
       </c>
       <c r="O37" t="n">
         <v>140.2078836136831</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>79.2256975520379</v>
+        <v>79.22569755203793</v>
       </c>
       <c r="L40" t="n">
         <v>147.3265159510392</v>
@@ -37712,7 +37712,7 @@
         <v>163.8577254777123</v>
       </c>
       <c r="N40" t="n">
-        <v>166.3134261725908</v>
+        <v>166.3134261725909</v>
       </c>
       <c r="O40" t="n">
         <v>140.2078836136831</v>
@@ -37794,13 +37794,13 @@
         <v>431.2612428698088</v>
       </c>
       <c r="O41" t="n">
-        <v>361.583683896071</v>
+        <v>361.5836838960705</v>
       </c>
       <c r="P41" t="n">
         <v>270.5483764412787</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.1687859063203</v>
+        <v>125.1687859063205</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>312.3657365303865</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.61923106468741</v>
+        <v>13.61923106468695</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.82828274653997</v>
+        <v>62.82828274654002</v>
       </c>
       <c r="L43" t="n">
         <v>130.9291011455413</v>
       </c>
       <c r="M43" t="n">
-        <v>147.4603106722143</v>
+        <v>147.4603106722144</v>
       </c>
       <c r="N43" t="n">
         <v>149.9160113670929</v>
@@ -37955,7 +37955,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P43" t="n">
-        <v>85.05077197047478</v>
+        <v>85.05077197047484</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>431.2612428698088</v>
       </c>
       <c r="O44" t="n">
-        <v>361.5836838960719</v>
+        <v>361.5836838960705</v>
       </c>
       <c r="P44" t="n">
         <v>270.5483764412787</v>
@@ -38107,7 +38107,7 @@
         <v>493.2498384860991</v>
       </c>
       <c r="N45" t="n">
-        <v>317.6890151441007</v>
+        <v>317.6890151440993</v>
       </c>
       <c r="O45" t="n">
         <v>410.5973251919337</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.82828274653997</v>
+        <v>62.82828274654</v>
       </c>
       <c r="L46" t="n">
         <v>130.9291011455413</v>
@@ -38192,7 +38192,7 @@
         <v>123.8104688081852</v>
       </c>
       <c r="P46" t="n">
-        <v>85.05077197047478</v>
+        <v>85.05077197047481</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
